--- a/erpnext/setup/setup_wizard/operations/tt200.xlsx
+++ b/erpnext/setup/setup_wizard/operations/tt200.xlsx
@@ -1,14 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2C495C-7FE9-4C0D-8074-4438F55A26FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="ExternalData_1">Sheet1!$A$1:$H$245</definedName>
+    <definedName name="ExternalData_1" localSheetId="0">Sheet1!$A$1:$H$245</definedName>
   </definedNames>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -771,16 +781,16 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -790,7 +800,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -806,7 +816,13 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -820,93 +836,113 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="49" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="7">
     <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <border/>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+      </border>
     </dxf>
     <dxf>
-      <font/>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border outline="0">
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB4C6E7"/>
+          <bgColor rgb="FFB4C6E7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE2EFD9"/>
+          <bgColor rgb="FFE2EFD9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="9"/>
           <bgColor theme="9"/>
         </patternFill>
       </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE2EFD9"/>
-          <bgColor rgb="FFE2EFD9"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB4C6E7"/>
-          <bgColor rgb="FFB4C6E7"/>
-        </patternFill>
-      </fill>
-      <border/>
     </dxf>
   </dxfs>
   <tableStyles count="1">
-    <tableStyle count="3" pivot="0" name="Sheet1-style">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+    <tableStyle name="Sheet1-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="headerRow" dxfId="6"/>
+      <tableStyleElement type="firstRowStripe" dxfId="5"/>
+      <tableStyleElement type="secondRowStripe" dxfId="4"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H245" displayName="Table_1" name="Table_1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:H245">
   <tableColumns count="8">
-    <tableColumn name="Account Name" id="1"/>
-    <tableColumn name="Parent Account" id="2"/>
-    <tableColumn name="Account Number" id="3"/>
-    <tableColumn name="Parent Account Number" id="4"/>
-    <tableColumn name="Is Group" id="5"/>
-    <tableColumn name="Account Type" id="6"/>
-    <tableColumn name="Root Type" id="7"/>
-    <tableColumn name="Currency" id="8"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Account Name"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Parent Account" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Account Number" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Parent Account Number" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Is Group" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Account Type"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Root Type"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Currency"/>
   </tableColumns>
-  <tableStyleInfo name="Sheet1-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="Sheet1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1096,33 +1132,33 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A209" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2:D245"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="44.25"/>
-    <col customWidth="1" min="2" max="2" width="30.63"/>
-    <col customWidth="1" min="3" max="3" width="18.75"/>
-    <col customWidth="1" min="4" max="4" width="22.5"/>
-    <col customWidth="1" min="5" max="5" width="8.63"/>
-    <col customWidth="1" min="6" max="6" width="35.38"/>
-    <col customWidth="1" min="7" max="7" width="15.25"/>
-    <col customWidth="1" min="8" max="8" width="14.63"/>
+    <col min="1" max="1" width="44.25" customWidth="1"/>
+    <col min="2" max="2" width="30.625" customWidth="1"/>
+    <col min="3" max="3" width="18.75" customWidth="1"/>
+    <col min="4" max="4" width="22.5" customWidth="1"/>
+    <col min="5" max="5" width="8.625" customWidth="1"/>
+    <col min="6" max="6" width="35.375" customWidth="1"/>
+    <col min="7" max="7" width="15.25" customWidth="1"/>
+    <col min="8" max="8" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1148,7 +1184,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="14.25" customHeight="1">
+    <row r="2" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -1156,11 +1192,11 @@
         <v>9</v>
       </c>
       <c r="C2" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>9</v>
@@ -1172,7 +1208,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" ht="14.25" customHeight="1">
+    <row r="3" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -1180,11 +1216,11 @@
         <v>9</v>
       </c>
       <c r="C3" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>9</v>
@@ -1196,7 +1232,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="14.25" customHeight="1">
+    <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -1204,11 +1240,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>9</v>
@@ -1220,7 +1256,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" ht="14.25" customHeight="1">
+    <row r="5" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
@@ -1228,11 +1264,11 @@
         <v>9</v>
       </c>
       <c r="C5" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>9</v>
@@ -1244,7 +1280,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" ht="14.25" customHeight="1">
+    <row r="6" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -1252,11 +1288,11 @@
         <v>9</v>
       </c>
       <c r="C6" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>9</v>
@@ -1268,7 +1304,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" ht="14.25" customHeight="1">
+    <row r="7" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -1276,11 +1312,11 @@
         <v>9</v>
       </c>
       <c r="C7" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>20</v>
@@ -1292,7 +1328,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" ht="14.25" customHeight="1">
+    <row r="8" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -1300,11 +1336,11 @@
         <v>9</v>
       </c>
       <c r="C8" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>9</v>
@@ -1316,7 +1352,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" ht="14.25" customHeight="1">
+    <row r="9" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -1324,11 +1360,11 @@
         <v>9</v>
       </c>
       <c r="C9" s="3">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>9</v>
@@ -1340,7 +1376,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" ht="14.25" customHeight="1">
+    <row r="10" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
@@ -1348,11 +1384,11 @@
         <v>9</v>
       </c>
       <c r="C10" s="3">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>9</v>
@@ -1364,7 +1400,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" ht="14.25" customHeight="1">
+    <row r="11" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
@@ -1372,13 +1408,13 @@
         <v>8</v>
       </c>
       <c r="C11" s="3">
-        <v>111.0</v>
+        <v>111</v>
       </c>
       <c r="D11" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>26</v>
@@ -1390,7 +1426,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" ht="14.25" customHeight="1">
+    <row r="12" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>27</v>
       </c>
@@ -1398,13 +1434,13 @@
         <v>8</v>
       </c>
       <c r="C12" s="3">
-        <v>112.0</v>
+        <v>112</v>
       </c>
       <c r="D12" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>28</v>
@@ -1416,7 +1452,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" ht="14.25" customHeight="1">
+    <row r="13" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>29</v>
       </c>
@@ -1424,13 +1460,13 @@
         <v>8</v>
       </c>
       <c r="C13" s="3">
-        <v>113.0</v>
+        <v>113</v>
       </c>
       <c r="D13" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>28</v>
@@ -1442,7 +1478,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" ht="14.25" customHeight="1">
+    <row r="14" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>30</v>
       </c>
@@ -1450,13 +1486,13 @@
         <v>8</v>
       </c>
       <c r="C14" s="3">
-        <v>121.0</v>
+        <v>121</v>
       </c>
       <c r="D14" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>9</v>
@@ -1468,7 +1504,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" ht="14.25" customHeight="1">
+    <row r="15" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>31</v>
       </c>
@@ -1476,13 +1512,13 @@
         <v>8</v>
       </c>
       <c r="C15" s="3">
-        <v>128.0</v>
+        <v>128</v>
       </c>
       <c r="D15" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>9</v>
@@ -1494,7 +1530,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" ht="14.25" customHeight="1">
+    <row r="16" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>32</v>
       </c>
@@ -1502,13 +1538,13 @@
         <v>8</v>
       </c>
       <c r="C16" s="3">
-        <v>131.0</v>
+        <v>131</v>
       </c>
       <c r="D16" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>33</v>
@@ -1520,7 +1556,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" ht="14.25" customHeight="1">
+    <row r="17" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>34</v>
       </c>
@@ -1528,13 +1564,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="3">
-        <v>133.0</v>
+        <v>133</v>
       </c>
       <c r="D17" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>35</v>
@@ -1546,7 +1582,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" ht="14.25" customHeight="1">
+    <row r="18" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>36</v>
       </c>
@@ -1554,13 +1590,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="3">
-        <v>136.0</v>
+        <v>136</v>
       </c>
       <c r="D18" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>33</v>
@@ -1572,7 +1608,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" ht="14.25" customHeight="1">
+    <row r="19" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>37</v>
       </c>
@@ -1580,13 +1616,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="3">
-        <v>138.0</v>
+        <v>138</v>
       </c>
       <c r="D19" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>33</v>
@@ -1598,7 +1634,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" ht="14.25" customHeight="1">
+    <row r="20" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>38</v>
       </c>
@@ -1606,13 +1642,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="3">
-        <v>141.0</v>
+        <v>141</v>
       </c>
       <c r="D20" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>9</v>
@@ -1624,7 +1660,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" ht="14.25" customHeight="1">
+    <row r="21" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>39</v>
       </c>
@@ -1632,13 +1668,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="3">
-        <v>151.0</v>
+        <v>151</v>
       </c>
       <c r="D21" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>40</v>
@@ -1650,7 +1686,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" ht="14.25" customHeight="1">
+    <row r="22" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>41</v>
       </c>
@@ -1658,13 +1694,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="3">
-        <v>152.0</v>
+        <v>152</v>
       </c>
       <c r="D22" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E22" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>9</v>
@@ -1676,7 +1712,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" ht="14.25" customHeight="1">
+    <row r="23" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>42</v>
       </c>
@@ -1684,13 +1720,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="3">
-        <v>153.0</v>
+        <v>153</v>
       </c>
       <c r="D23" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E23" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>9</v>
@@ -1702,7 +1738,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" ht="14.25" customHeight="1">
+    <row r="24" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>43</v>
       </c>
@@ -1710,13 +1746,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="3">
-        <v>154.0</v>
+        <v>154</v>
       </c>
       <c r="D24" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E24" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>44</v>
@@ -1728,7 +1764,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" ht="14.25" customHeight="1">
+    <row r="25" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>45</v>
       </c>
@@ -1736,13 +1772,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="3">
-        <v>155.0</v>
+        <v>155</v>
       </c>
       <c r="D25" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E25" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>46</v>
@@ -1754,7 +1790,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" ht="14.25" customHeight="1">
+    <row r="26" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>47</v>
       </c>
@@ -1762,13 +1798,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="3">
-        <v>156.0</v>
+        <v>156</v>
       </c>
       <c r="D26" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E26" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>46</v>
@@ -1780,7 +1816,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" ht="14.25" customHeight="1">
+    <row r="27" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>48</v>
       </c>
@@ -1788,13 +1824,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="3">
-        <v>157.0</v>
+        <v>157</v>
       </c>
       <c r="D27" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E27" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>9</v>
@@ -1806,7 +1842,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" ht="14.25" customHeight="1">
+    <row r="28" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>49</v>
       </c>
@@ -1814,13 +1850,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="3">
-        <v>158.0</v>
+        <v>158</v>
       </c>
       <c r="D28" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E28" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>9</v>
@@ -1832,7 +1868,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" ht="14.25" customHeight="1">
+    <row r="29" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>50</v>
       </c>
@@ -1840,13 +1876,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="3">
-        <v>161.0</v>
+        <v>161</v>
       </c>
       <c r="D29" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E29" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>9</v>
@@ -1858,7 +1894,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" ht="14.25" customHeight="1">
+    <row r="30" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>51</v>
       </c>
@@ -1866,13 +1902,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="3">
-        <v>171.0</v>
+        <v>171</v>
       </c>
       <c r="D30" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E30" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>9</v>
@@ -1884,7 +1920,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" ht="14.25" customHeight="1">
+    <row r="31" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>52</v>
       </c>
@@ -1892,13 +1928,13 @@
         <v>12</v>
       </c>
       <c r="C31" s="3">
-        <v>211.0</v>
+        <v>211</v>
       </c>
       <c r="D31" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E31" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>9</v>
@@ -1910,7 +1946,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" ht="14.25" customHeight="1">
+    <row r="32" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>53</v>
       </c>
@@ -1918,13 +1954,13 @@
         <v>12</v>
       </c>
       <c r="C32" s="3">
-        <v>212.0</v>
+        <v>212</v>
       </c>
       <c r="D32" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E32" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>9</v>
@@ -1936,7 +1972,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" ht="14.25" customHeight="1">
+    <row r="33" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>54</v>
       </c>
@@ -1944,13 +1980,13 @@
         <v>12</v>
       </c>
       <c r="C33" s="3">
-        <v>213.0</v>
+        <v>213</v>
       </c>
       <c r="D33" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E33" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>9</v>
@@ -1962,7 +1998,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" ht="14.25" customHeight="1">
+    <row r="34" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>55</v>
       </c>
@@ -1970,13 +2006,13 @@
         <v>12</v>
       </c>
       <c r="C34" s="3">
-        <v>214.0</v>
+        <v>214</v>
       </c>
       <c r="D34" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E34" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>56</v>
@@ -1988,7 +2024,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" ht="14.25" customHeight="1">
+    <row r="35" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>57</v>
       </c>
@@ -1996,13 +2032,13 @@
         <v>12</v>
       </c>
       <c r="C35" s="3">
-        <v>217.0</v>
+        <v>217</v>
       </c>
       <c r="D35" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E35" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>9</v>
@@ -2014,7 +2050,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" ht="14.25" customHeight="1">
+    <row r="36" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>58</v>
       </c>
@@ -2022,13 +2058,13 @@
         <v>12</v>
       </c>
       <c r="C36" s="3">
-        <v>221.0</v>
+        <v>221</v>
       </c>
       <c r="D36" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E36" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>9</v>
@@ -2040,7 +2076,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" ht="14.25" customHeight="1">
+    <row r="37" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>59</v>
       </c>
@@ -2048,13 +2084,13 @@
         <v>12</v>
       </c>
       <c r="C37" s="3">
-        <v>222.0</v>
+        <v>222</v>
       </c>
       <c r="D37" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E37" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>9</v>
@@ -2066,7 +2102,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" ht="14.25" customHeight="1">
+    <row r="38" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>60</v>
       </c>
@@ -2074,13 +2110,13 @@
         <v>12</v>
       </c>
       <c r="C38" s="3">
-        <v>228.0</v>
+        <v>228</v>
       </c>
       <c r="D38" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E38" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>9</v>
@@ -2092,7 +2128,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" ht="14.25" customHeight="1">
+    <row r="39" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>61</v>
       </c>
@@ -2100,13 +2136,13 @@
         <v>12</v>
       </c>
       <c r="C39" s="3">
-        <v>229.0</v>
+        <v>229</v>
       </c>
       <c r="D39" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E39" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>9</v>
@@ -2118,7 +2154,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" ht="14.25" customHeight="1">
+    <row r="40" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>62</v>
       </c>
@@ -2126,13 +2162,13 @@
         <v>12</v>
       </c>
       <c r="C40" s="3">
-        <v>241.0</v>
+        <v>241</v>
       </c>
       <c r="D40" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E40" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>9</v>
@@ -2144,7 +2180,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" ht="14.25" customHeight="1">
+    <row r="41" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>63</v>
       </c>
@@ -2152,13 +2188,13 @@
         <v>12</v>
       </c>
       <c r="C41" s="3">
-        <v>242.0</v>
+        <v>242</v>
       </c>
       <c r="D41" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E41" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>9</v>
@@ -2170,7 +2206,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" ht="14.25" customHeight="1">
+    <row r="42" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>64</v>
       </c>
@@ -2178,13 +2214,13 @@
         <v>12</v>
       </c>
       <c r="C42" s="3">
-        <v>243.0</v>
+        <v>243</v>
       </c>
       <c r="D42" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E42" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>9</v>
@@ -2196,7 +2232,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" ht="14.25" customHeight="1">
+    <row r="43" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>65</v>
       </c>
@@ -2204,13 +2240,13 @@
         <v>12</v>
       </c>
       <c r="C43" s="3">
-        <v>244.0</v>
+        <v>244</v>
       </c>
       <c r="D43" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E43" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>9</v>
@@ -2222,7 +2258,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" ht="14.25" customHeight="1">
+    <row r="44" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>66</v>
       </c>
@@ -2230,13 +2266,13 @@
         <v>13</v>
       </c>
       <c r="C44" s="3">
-        <v>331.0</v>
+        <v>331</v>
       </c>
       <c r="D44" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E44" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>67</v>
@@ -2248,7 +2284,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" ht="14.25" customHeight="1">
+    <row r="45" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>68</v>
       </c>
@@ -2256,13 +2292,13 @@
         <v>13</v>
       </c>
       <c r="C45" s="3">
-        <v>333.0</v>
+        <v>333</v>
       </c>
       <c r="D45" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E45" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>35</v>
@@ -2274,7 +2310,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" ht="14.25" customHeight="1">
+    <row r="46" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>69</v>
       </c>
@@ -2282,13 +2318,13 @@
         <v>13</v>
       </c>
       <c r="C46" s="3">
-        <v>334.0</v>
+        <v>334</v>
       </c>
       <c r="D46" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E46" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>67</v>
@@ -2300,7 +2336,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" ht="14.25" customHeight="1">
+    <row r="47" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>70</v>
       </c>
@@ -2308,13 +2344,13 @@
         <v>13</v>
       </c>
       <c r="C47" s="3">
-        <v>335.0</v>
+        <v>335</v>
       </c>
       <c r="D47" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E47" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>67</v>
@@ -2326,7 +2362,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" ht="14.25" customHeight="1">
+    <row r="48" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>71</v>
       </c>
@@ -2334,13 +2370,13 @@
         <v>13</v>
       </c>
       <c r="C48" s="3">
-        <v>336.0</v>
+        <v>336</v>
       </c>
       <c r="D48" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E48" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>67</v>
@@ -2352,7 +2388,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" ht="14.25" customHeight="1">
+    <row r="49" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>72</v>
       </c>
@@ -2360,13 +2396,13 @@
         <v>13</v>
       </c>
       <c r="C49" s="3">
-        <v>337.0</v>
+        <v>337</v>
       </c>
       <c r="D49" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E49" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>9</v>
@@ -2378,7 +2414,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" ht="14.25" customHeight="1">
+    <row r="50" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>73</v>
       </c>
@@ -2386,13 +2422,13 @@
         <v>13</v>
       </c>
       <c r="C50" s="3">
-        <v>338.0</v>
+        <v>338</v>
       </c>
       <c r="D50" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E50" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>9</v>
@@ -2404,7 +2440,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" ht="14.25" customHeight="1">
+    <row r="51" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>74</v>
       </c>
@@ -2412,13 +2448,13 @@
         <v>13</v>
       </c>
       <c r="C51" s="3">
-        <v>341.0</v>
+        <v>341</v>
       </c>
       <c r="D51" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E51" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>9</v>
@@ -2430,7 +2466,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" ht="14.25" customHeight="1">
+    <row r="52" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>75</v>
       </c>
@@ -2438,13 +2474,13 @@
         <v>13</v>
       </c>
       <c r="C52" s="3">
-        <v>343.0</v>
+        <v>343</v>
       </c>
       <c r="D52" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E52" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>9</v>
@@ -2456,7 +2492,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" ht="14.25" customHeight="1">
+    <row r="53" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>76</v>
       </c>
@@ -2464,13 +2500,13 @@
         <v>13</v>
       </c>
       <c r="C53" s="3">
-        <v>344.0</v>
+        <v>344</v>
       </c>
       <c r="D53" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E53" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>9</v>
@@ -2482,7 +2518,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" ht="14.25" customHeight="1">
+    <row r="54" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>77</v>
       </c>
@@ -2490,13 +2526,13 @@
         <v>13</v>
       </c>
       <c r="C54" s="3">
-        <v>347.0</v>
+        <v>347</v>
       </c>
       <c r="D54" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E54" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>9</v>
@@ -2508,7 +2544,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" ht="14.25" customHeight="1">
+    <row r="55" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>78</v>
       </c>
@@ -2516,13 +2552,13 @@
         <v>13</v>
       </c>
       <c r="C55" s="3">
-        <v>352.0</v>
+        <v>352</v>
       </c>
       <c r="D55" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E55" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>9</v>
@@ -2534,7 +2570,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" ht="14.25" customHeight="1">
+    <row r="56" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>79</v>
       </c>
@@ -2542,13 +2578,13 @@
         <v>13</v>
       </c>
       <c r="C56" s="3">
-        <v>353.0</v>
+        <v>353</v>
       </c>
       <c r="D56" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E56" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>9</v>
@@ -2560,7 +2596,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" ht="14.25" customHeight="1">
+    <row r="57" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>80</v>
       </c>
@@ -2568,13 +2604,13 @@
         <v>13</v>
       </c>
       <c r="C57" s="3">
-        <v>356.0</v>
+        <v>356</v>
       </c>
       <c r="D57" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E57" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>9</v>
@@ -2586,7 +2622,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" ht="14.25" customHeight="1">
+    <row r="58" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>81</v>
       </c>
@@ -2594,13 +2630,13 @@
         <v>13</v>
       </c>
       <c r="C58" s="3">
-        <v>357.0</v>
+        <v>357</v>
       </c>
       <c r="D58" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E58" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>9</v>
@@ -2612,7 +2648,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" ht="14.25" customHeight="1">
+    <row r="59" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>82</v>
       </c>
@@ -2620,13 +2656,13 @@
         <v>15</v>
       </c>
       <c r="C59" s="3">
-        <v>411.0</v>
+        <v>411</v>
       </c>
       <c r="D59" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E59" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>9</v>
@@ -2638,7 +2674,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" ht="14.25" customHeight="1">
+    <row r="60" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>83</v>
       </c>
@@ -2646,13 +2682,13 @@
         <v>15</v>
       </c>
       <c r="C60" s="3">
-        <v>412.0</v>
+        <v>412</v>
       </c>
       <c r="D60" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E60" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>9</v>
@@ -2664,7 +2700,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" ht="14.25" customHeight="1">
+    <row r="61" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>84</v>
       </c>
@@ -2672,13 +2708,13 @@
         <v>15</v>
       </c>
       <c r="C61" s="3">
-        <v>413.0</v>
+        <v>413</v>
       </c>
       <c r="D61" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E61" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>9</v>
@@ -2690,7 +2726,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" ht="14.25" customHeight="1">
+    <row r="62" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>85</v>
       </c>
@@ -2698,13 +2734,13 @@
         <v>15</v>
       </c>
       <c r="C62" s="3">
-        <v>414.0</v>
+        <v>414</v>
       </c>
       <c r="D62" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E62" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>9</v>
@@ -2716,7 +2752,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" ht="14.25" customHeight="1">
+    <row r="63" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>86</v>
       </c>
@@ -2724,13 +2760,13 @@
         <v>15</v>
       </c>
       <c r="C63" s="3">
-        <v>417.0</v>
+        <v>417</v>
       </c>
       <c r="D63" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E63" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>9</v>
@@ -2742,7 +2778,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" ht="14.25" customHeight="1">
+    <row r="64" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>87</v>
       </c>
@@ -2750,13 +2786,13 @@
         <v>15</v>
       </c>
       <c r="C64" s="3">
-        <v>418.0</v>
+        <v>418</v>
       </c>
       <c r="D64" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E64" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>9</v>
@@ -2768,7 +2804,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" ht="14.25" customHeight="1">
+    <row r="65" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>88</v>
       </c>
@@ -2776,13 +2812,13 @@
         <v>15</v>
       </c>
       <c r="C65" s="3">
-        <v>419.0</v>
+        <v>419</v>
       </c>
       <c r="D65" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E65" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>9</v>
@@ -2794,7 +2830,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" ht="14.25" customHeight="1">
+    <row r="66" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>89</v>
       </c>
@@ -2802,13 +2838,13 @@
         <v>15</v>
       </c>
       <c r="C66" s="3">
-        <v>421.0</v>
+        <v>421</v>
       </c>
       <c r="D66" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E66" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>9</v>
@@ -2820,7 +2856,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" ht="14.25" customHeight="1">
+    <row r="67" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>90</v>
       </c>
@@ -2828,13 +2864,13 @@
         <v>15</v>
       </c>
       <c r="C67" s="3">
-        <v>441.0</v>
+        <v>441</v>
       </c>
       <c r="D67" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E67" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>9</v>
@@ -2846,7 +2882,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="68" ht="14.25" customHeight="1">
+    <row r="68" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>91</v>
       </c>
@@ -2854,13 +2890,13 @@
         <v>15</v>
       </c>
       <c r="C68" s="3">
-        <v>461.0</v>
+        <v>461</v>
       </c>
       <c r="D68" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E68" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>9</v>
@@ -2872,7 +2908,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" ht="14.25" customHeight="1">
+    <row r="69" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>92</v>
       </c>
@@ -2880,13 +2916,13 @@
         <v>15</v>
       </c>
       <c r="C69" s="3">
-        <v>466.0</v>
+        <v>466</v>
       </c>
       <c r="D69" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E69" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>9</v>
@@ -2898,7 +2934,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" ht="14.25" customHeight="1">
+    <row r="70" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>93</v>
       </c>
@@ -2906,13 +2942,13 @@
         <v>17</v>
       </c>
       <c r="C70" s="3">
-        <v>511.0</v>
+        <v>511</v>
       </c>
       <c r="D70" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E70" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>9</v>
@@ -2924,7 +2960,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" ht="14.25" customHeight="1">
+    <row r="71" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>94</v>
       </c>
@@ -2932,13 +2968,13 @@
         <v>17</v>
       </c>
       <c r="C71" s="3">
-        <v>515.0</v>
+        <v>515</v>
       </c>
       <c r="D71" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E71" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>9</v>
@@ -2950,7 +2986,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" ht="14.25" customHeight="1">
+    <row r="72" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>95</v>
       </c>
@@ -2958,13 +2994,13 @@
         <v>17</v>
       </c>
       <c r="C72" s="3">
-        <v>521.0</v>
+        <v>521</v>
       </c>
       <c r="D72" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E72" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>9</v>
@@ -2976,7 +3012,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" ht="14.25" customHeight="1">
+    <row r="73" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>96</v>
       </c>
@@ -2984,13 +3020,13 @@
         <v>19</v>
       </c>
       <c r="C73" s="3">
-        <v>611.0</v>
+        <v>611</v>
       </c>
       <c r="D73" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E73" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>20</v>
@@ -3002,7 +3038,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" ht="14.25" customHeight="1">
+    <row r="74" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>97</v>
       </c>
@@ -3010,13 +3046,13 @@
         <v>19</v>
       </c>
       <c r="C74" s="3">
-        <v>621.0</v>
+        <v>621</v>
       </c>
       <c r="D74" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E74" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>9</v>
@@ -3028,7 +3064,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" ht="14.25" customHeight="1">
+    <row r="75" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>98</v>
       </c>
@@ -3036,13 +3072,13 @@
         <v>19</v>
       </c>
       <c r="C75" s="3">
-        <v>622.0</v>
+        <v>622</v>
       </c>
       <c r="D75" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E75" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>9</v>
@@ -3054,7 +3090,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" ht="14.25" customHeight="1">
+    <row r="76" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>99</v>
       </c>
@@ -3062,13 +3098,13 @@
         <v>19</v>
       </c>
       <c r="C76" s="3">
-        <v>623.0</v>
+        <v>623</v>
       </c>
       <c r="D76" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E76" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>20</v>
@@ -3080,7 +3116,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" ht="14.25" customHeight="1">
+    <row r="77" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>100</v>
       </c>
@@ -3088,13 +3124,13 @@
         <v>19</v>
       </c>
       <c r="C77" s="3">
-        <v>627.0</v>
+        <v>627</v>
       </c>
       <c r="D77" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E77" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>9</v>
@@ -3106,7 +3142,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" ht="14.25" customHeight="1">
+    <row r="78" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>101</v>
       </c>
@@ -3114,13 +3150,13 @@
         <v>19</v>
       </c>
       <c r="C78" s="3">
-        <v>631.0</v>
+        <v>631</v>
       </c>
       <c r="D78" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E78" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>9</v>
@@ -3132,7 +3168,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" ht="14.25" customHeight="1">
+    <row r="79" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>102</v>
       </c>
@@ -3140,13 +3176,13 @@
         <v>19</v>
       </c>
       <c r="C79" s="3">
-        <v>632.0</v>
+        <v>632</v>
       </c>
       <c r="D79" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E79" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>103</v>
@@ -3158,7 +3194,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" ht="14.25" customHeight="1">
+    <row r="80" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>104</v>
       </c>
@@ -3166,13 +3202,13 @@
         <v>19</v>
       </c>
       <c r="C80" s="3">
-        <v>635.0</v>
+        <v>635</v>
       </c>
       <c r="D80" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E80" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>9</v>
@@ -3184,7 +3220,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" ht="14.25" customHeight="1">
+    <row r="81" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>105</v>
       </c>
@@ -3192,13 +3228,13 @@
         <v>19</v>
       </c>
       <c r="C81" s="3">
-        <v>641.0</v>
+        <v>641</v>
       </c>
       <c r="D81" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E81" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>9</v>
@@ -3210,7 +3246,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" ht="14.25" customHeight="1">
+    <row r="82" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>106</v>
       </c>
@@ -3218,13 +3254,13 @@
         <v>19</v>
       </c>
       <c r="C82" s="3">
-        <v>642.0</v>
+        <v>642</v>
       </c>
       <c r="D82" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E82" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>9</v>
@@ -3236,7 +3272,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" ht="14.25" customHeight="1">
+    <row r="83" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>107</v>
       </c>
@@ -3244,13 +3280,13 @@
         <v>22</v>
       </c>
       <c r="C83" s="3">
-        <v>711.0</v>
+        <v>711</v>
       </c>
       <c r="D83" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E83" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>9</v>
@@ -3262,7 +3298,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84" ht="14.25" customHeight="1">
+    <row r="84" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>108</v>
       </c>
@@ -3270,13 +3306,13 @@
         <v>23</v>
       </c>
       <c r="C84" s="3">
-        <v>811.0</v>
+        <v>811</v>
       </c>
       <c r="D84" s="3">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="E84" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>9</v>
@@ -3288,7 +3324,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" ht="14.25" customHeight="1">
+    <row r="85" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>109</v>
       </c>
@@ -3296,13 +3332,13 @@
         <v>23</v>
       </c>
       <c r="C85" s="3">
-        <v>821.0</v>
+        <v>821</v>
       </c>
       <c r="D85" s="3">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="E85" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>9</v>
@@ -3314,7 +3350,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="86" ht="14.25" customHeight="1">
+    <row r="86" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>110</v>
       </c>
@@ -3322,13 +3358,13 @@
         <v>24</v>
       </c>
       <c r="C86" s="3">
-        <v>911.0</v>
+        <v>911</v>
       </c>
       <c r="D86" s="3">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="E86" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>9</v>
@@ -3340,7 +3376,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" ht="14.25" customHeight="1">
+    <row r="87" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>111</v>
       </c>
@@ -3348,13 +3384,13 @@
         <v>25</v>
       </c>
       <c r="C87" s="3">
-        <v>1111.0</v>
+        <v>1111</v>
       </c>
       <c r="D87" s="3">
-        <v>111.0</v>
+        <v>111</v>
       </c>
       <c r="E87" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>26</v>
@@ -3366,7 +3402,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" ht="14.25" customHeight="1">
+    <row r="88" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>112</v>
       </c>
@@ -3374,13 +3410,13 @@
         <v>25</v>
       </c>
       <c r="C88" s="3">
-        <v>1112.0</v>
+        <v>1112</v>
       </c>
       <c r="D88" s="3">
-        <v>111.0</v>
+        <v>111</v>
       </c>
       <c r="E88" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>26</v>
@@ -3392,7 +3428,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="89" ht="14.25" customHeight="1">
+    <row r="89" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>114</v>
       </c>
@@ -3400,13 +3436,13 @@
         <v>25</v>
       </c>
       <c r="C89" s="3">
-        <v>1113.0</v>
+        <v>1113</v>
       </c>
       <c r="D89" s="3">
-        <v>111.0</v>
+        <v>111</v>
       </c>
       <c r="E89" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>26</v>
@@ -3418,7 +3454,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" ht="14.25" customHeight="1">
+    <row r="90" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>111</v>
       </c>
@@ -3426,13 +3462,13 @@
         <v>27</v>
       </c>
       <c r="C90" s="3">
-        <v>1121.0</v>
+        <v>1121</v>
       </c>
       <c r="D90" s="3">
-        <v>112.0</v>
+        <v>112</v>
       </c>
       <c r="E90" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>28</v>
@@ -3444,7 +3480,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91" ht="14.25" customHeight="1">
+    <row r="91" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>112</v>
       </c>
@@ -3452,13 +3488,13 @@
         <v>27</v>
       </c>
       <c r="C91" s="3">
-        <v>1122.0</v>
+        <v>1122</v>
       </c>
       <c r="D91" s="3">
-        <v>112.0</v>
+        <v>112</v>
       </c>
       <c r="E91" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>28</v>
@@ -3470,7 +3506,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="92" ht="14.25" customHeight="1">
+    <row r="92" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>114</v>
       </c>
@@ -3478,13 +3514,13 @@
         <v>27</v>
       </c>
       <c r="C92" s="3">
-        <v>1123.0</v>
+        <v>1123</v>
       </c>
       <c r="D92" s="3">
-        <v>112.0</v>
+        <v>112</v>
       </c>
       <c r="E92" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>28</v>
@@ -3496,7 +3532,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" ht="14.25" customHeight="1">
+    <row r="93" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>111</v>
       </c>
@@ -3504,13 +3540,13 @@
         <v>29</v>
       </c>
       <c r="C93" s="3">
-        <v>1131.0</v>
+        <v>1131</v>
       </c>
       <c r="D93" s="3">
-        <v>113.0</v>
+        <v>113</v>
       </c>
       <c r="E93" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>28</v>
@@ -3522,7 +3558,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="94" ht="14.25" customHeight="1">
+    <row r="94" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>112</v>
       </c>
@@ -3530,13 +3566,13 @@
         <v>29</v>
       </c>
       <c r="C94" s="3">
-        <v>1132.0</v>
+        <v>1132</v>
       </c>
       <c r="D94" s="3">
-        <v>113.0</v>
+        <v>113</v>
       </c>
       <c r="E94" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>28</v>
@@ -3548,7 +3584,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="95" ht="14.25" customHeight="1">
+    <row r="95" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>115</v>
       </c>
@@ -3556,13 +3592,13 @@
         <v>30</v>
       </c>
       <c r="C95" s="3">
-        <v>1211.0</v>
+        <v>1211</v>
       </c>
       <c r="D95" s="3">
-        <v>121.0</v>
+        <v>121</v>
       </c>
       <c r="E95" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>9</v>
@@ -3574,7 +3610,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="96" ht="14.25" customHeight="1">
+    <row r="96" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>116</v>
       </c>
@@ -3582,13 +3618,13 @@
         <v>30</v>
       </c>
       <c r="C96" s="3">
-        <v>1212.0</v>
+        <v>1212</v>
       </c>
       <c r="D96" s="3">
-        <v>121.0</v>
+        <v>121</v>
       </c>
       <c r="E96" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>9</v>
@@ -3600,7 +3636,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="97" ht="14.25" customHeight="1">
+    <row r="97" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>117</v>
       </c>
@@ -3608,13 +3644,13 @@
         <v>30</v>
       </c>
       <c r="C97" s="3">
-        <v>1218.0</v>
+        <v>1218</v>
       </c>
       <c r="D97" s="3">
-        <v>121.0</v>
+        <v>121</v>
       </c>
       <c r="E97" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>9</v>
@@ -3626,7 +3662,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="98" ht="14.25" customHeight="1">
+    <row r="98" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>118</v>
       </c>
@@ -3634,13 +3670,13 @@
         <v>31</v>
       </c>
       <c r="C98" s="3">
-        <v>1281.0</v>
+        <v>1281</v>
       </c>
       <c r="D98" s="3">
-        <v>128.0</v>
+        <v>128</v>
       </c>
       <c r="E98" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>9</v>
@@ -3652,7 +3688,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" ht="14.25" customHeight="1">
+    <row r="99" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>116</v>
       </c>
@@ -3660,13 +3696,13 @@
         <v>31</v>
       </c>
       <c r="C99" s="3">
-        <v>1282.0</v>
+        <v>1282</v>
       </c>
       <c r="D99" s="3">
-        <v>128.0</v>
+        <v>128</v>
       </c>
       <c r="E99" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>9</v>
@@ -3678,7 +3714,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="100" ht="14.25" customHeight="1">
+    <row r="100" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>119</v>
       </c>
@@ -3686,13 +3722,13 @@
         <v>31</v>
       </c>
       <c r="C100" s="3">
-        <v>1283.0</v>
+        <v>1283</v>
       </c>
       <c r="D100" s="3">
-        <v>128.0</v>
+        <v>128</v>
       </c>
       <c r="E100" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>9</v>
@@ -3704,7 +3740,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="101" ht="14.25" customHeight="1">
+    <row r="101" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>120</v>
       </c>
@@ -3712,13 +3748,13 @@
         <v>31</v>
       </c>
       <c r="C101" s="3">
-        <v>1288.0</v>
+        <v>1288</v>
       </c>
       <c r="D101" s="3">
-        <v>128.0</v>
+        <v>128</v>
       </c>
       <c r="E101" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>9</v>
@@ -3730,7 +3766,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="102" ht="14.25" customHeight="1">
+    <row r="102" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>121</v>
       </c>
@@ -3738,13 +3774,13 @@
         <v>34</v>
       </c>
       <c r="C102" s="3">
-        <v>1331.0</v>
+        <v>1331</v>
       </c>
       <c r="D102" s="3">
-        <v>133.0</v>
+        <v>133</v>
       </c>
       <c r="E102" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>35</v>
@@ -3756,7 +3792,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="103" ht="14.25" customHeight="1">
+    <row r="103" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>122</v>
       </c>
@@ -3764,13 +3800,13 @@
         <v>34</v>
       </c>
       <c r="C103" s="3">
-        <v>1332.0</v>
+        <v>1332</v>
       </c>
       <c r="D103" s="3">
-        <v>133.0</v>
+        <v>133</v>
       </c>
       <c r="E103" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>35</v>
@@ -3782,7 +3818,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="104" ht="14.25" customHeight="1">
+    <row r="104" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>123</v>
       </c>
@@ -3790,13 +3826,13 @@
         <v>36</v>
       </c>
       <c r="C104" s="3">
-        <v>1361.0</v>
+        <v>1361</v>
       </c>
       <c r="D104" s="3">
-        <v>136.0</v>
+        <v>136</v>
       </c>
       <c r="E104" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>33</v>
@@ -3808,7 +3844,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="105" ht="14.25" customHeight="1">
+    <row r="105" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>124</v>
       </c>
@@ -3816,13 +3852,13 @@
         <v>36</v>
       </c>
       <c r="C105" s="3">
-        <v>1362.0</v>
+        <v>1362</v>
       </c>
       <c r="D105" s="3">
-        <v>136.0</v>
+        <v>136</v>
       </c>
       <c r="E105" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>33</v>
@@ -3834,7 +3870,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="106" ht="14.25" customHeight="1">
+    <row r="106" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>125</v>
       </c>
@@ -3842,13 +3878,13 @@
         <v>36</v>
       </c>
       <c r="C106" s="3">
-        <v>1363.0</v>
+        <v>1363</v>
       </c>
       <c r="D106" s="3">
-        <v>136.0</v>
+        <v>136</v>
       </c>
       <c r="E106" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>33</v>
@@ -3860,7 +3896,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="107" ht="14.25" customHeight="1">
+    <row r="107" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>126</v>
       </c>
@@ -3868,13 +3904,13 @@
         <v>36</v>
       </c>
       <c r="C107" s="3">
-        <v>1368.0</v>
+        <v>1368</v>
       </c>
       <c r="D107" s="3">
-        <v>136.0</v>
+        <v>136</v>
       </c>
       <c r="E107" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>33</v>
@@ -3886,7 +3922,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="108" ht="14.25" customHeight="1">
+    <row r="108" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>127</v>
       </c>
@@ -3894,13 +3930,13 @@
         <v>37</v>
       </c>
       <c r="C108" s="3">
-        <v>1381.0</v>
+        <v>1381</v>
       </c>
       <c r="D108" s="3">
-        <v>138.0</v>
+        <v>138</v>
       </c>
       <c r="E108" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>33</v>
@@ -3912,7 +3948,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109" ht="14.25" customHeight="1">
+    <row r="109" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>128</v>
       </c>
@@ -3920,13 +3956,13 @@
         <v>37</v>
       </c>
       <c r="C109" s="3">
-        <v>1385.0</v>
+        <v>1385</v>
       </c>
       <c r="D109" s="3">
-        <v>138.0</v>
+        <v>138</v>
       </c>
       <c r="E109" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>33</v>
@@ -3938,7 +3974,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="110" ht="14.25" customHeight="1">
+    <row r="110" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>37</v>
       </c>
@@ -3946,13 +3982,13 @@
         <v>37</v>
       </c>
       <c r="C110" s="3">
-        <v>1388.0</v>
+        <v>1388</v>
       </c>
       <c r="D110" s="3">
-        <v>138.0</v>
+        <v>138</v>
       </c>
       <c r="E110" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>33</v>
@@ -3964,7 +4000,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="111" ht="14.25" customHeight="1">
+    <row r="111" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>42</v>
       </c>
@@ -3972,13 +4008,13 @@
         <v>42</v>
       </c>
       <c r="C111" s="3">
-        <v>1531.0</v>
+        <v>1531</v>
       </c>
       <c r="D111" s="3">
-        <v>153.0</v>
+        <v>153</v>
       </c>
       <c r="E111" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>9</v>
@@ -3990,7 +4026,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="112" ht="14.25" customHeight="1">
+    <row r="112" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>129</v>
       </c>
@@ -3998,13 +4034,13 @@
         <v>42</v>
       </c>
       <c r="C112" s="3">
-        <v>1532.0</v>
+        <v>1532</v>
       </c>
       <c r="D112" s="3">
-        <v>153.0</v>
+        <v>153</v>
       </c>
       <c r="E112" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>9</v>
@@ -4016,7 +4052,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="113" ht="14.25" customHeight="1">
+    <row r="113" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>130</v>
       </c>
@@ -4024,13 +4060,13 @@
         <v>42</v>
       </c>
       <c r="C113" s="3">
-        <v>1533.0</v>
+        <v>1533</v>
       </c>
       <c r="D113" s="3">
-        <v>153.0</v>
+        <v>153</v>
       </c>
       <c r="E113" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>9</v>
@@ -4042,7 +4078,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="114" ht="14.25" customHeight="1">
+    <row r="114" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>131</v>
       </c>
@@ -4050,13 +4086,13 @@
         <v>42</v>
       </c>
       <c r="C114" s="3">
-        <v>1534.0</v>
+        <v>1534</v>
       </c>
       <c r="D114" s="3">
-        <v>153.0</v>
+        <v>153</v>
       </c>
       <c r="E114" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>9</v>
@@ -4068,7 +4104,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="115" ht="14.25" customHeight="1">
+    <row r="115" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>132</v>
       </c>
@@ -4076,13 +4112,13 @@
         <v>45</v>
       </c>
       <c r="C115" s="3">
-        <v>1551.0</v>
+        <v>1551</v>
       </c>
       <c r="D115" s="3">
-        <v>155.0</v>
+        <v>155</v>
       </c>
       <c r="E115" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>46</v>
@@ -4094,7 +4130,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="116" ht="14.25" customHeight="1">
+    <row r="116" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>133</v>
       </c>
@@ -4102,13 +4138,13 @@
         <v>45</v>
       </c>
       <c r="C116" s="3">
-        <v>1557.0</v>
+        <v>1557</v>
       </c>
       <c r="D116" s="3">
-        <v>155.0</v>
+        <v>155</v>
       </c>
       <c r="E116" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>46</v>
@@ -4120,7 +4156,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="117" ht="14.25" customHeight="1">
+    <row r="117" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>134</v>
       </c>
@@ -4128,13 +4164,13 @@
         <v>47</v>
       </c>
       <c r="C117" s="3">
-        <v>1561.0</v>
+        <v>1561</v>
       </c>
       <c r="D117" s="3">
-        <v>156.0</v>
+        <v>156</v>
       </c>
       <c r="E117" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>9</v>
@@ -4146,7 +4182,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="118" ht="14.25" customHeight="1">
+    <row r="118" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>135</v>
       </c>
@@ -4154,13 +4190,13 @@
         <v>47</v>
       </c>
       <c r="C118" s="3">
-        <v>1562.0</v>
+        <v>1562</v>
       </c>
       <c r="D118" s="3">
-        <v>156.0</v>
+        <v>156</v>
       </c>
       <c r="E118" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>9</v>
@@ -4172,7 +4208,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="119" ht="14.25" customHeight="1">
+    <row r="119" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>136</v>
       </c>
@@ -4180,13 +4216,13 @@
         <v>47</v>
       </c>
       <c r="C119" s="3">
-        <v>1567.0</v>
+        <v>1567</v>
       </c>
       <c r="D119" s="3">
-        <v>156.0</v>
+        <v>156</v>
       </c>
       <c r="E119" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>9</v>
@@ -4198,7 +4234,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="120" ht="14.25" customHeight="1">
+    <row r="120" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>137</v>
       </c>
@@ -4206,13 +4242,13 @@
         <v>50</v>
       </c>
       <c r="C120" s="3">
-        <v>1611.0</v>
+        <v>1611</v>
       </c>
       <c r="D120" s="3">
-        <v>161.0</v>
+        <v>161</v>
       </c>
       <c r="E120" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>9</v>
@@ -4224,7 +4260,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="121" ht="14.25" customHeight="1">
+    <row r="121" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>138</v>
       </c>
@@ -4232,13 +4268,13 @@
         <v>50</v>
       </c>
       <c r="C121" s="3">
-        <v>1612.0</v>
+        <v>1612</v>
       </c>
       <c r="D121" s="3">
-        <v>161.0</v>
+        <v>161</v>
       </c>
       <c r="E121" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>9</v>
@@ -4250,7 +4286,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="122" ht="14.25" customHeight="1">
+    <row r="122" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>139</v>
       </c>
@@ -4258,13 +4294,13 @@
         <v>52</v>
       </c>
       <c r="C122" s="3">
-        <v>2111.0</v>
+        <v>2111</v>
       </c>
       <c r="D122" s="3">
-        <v>211.0</v>
+        <v>211</v>
       </c>
       <c r="E122" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>9</v>
@@ -4276,7 +4312,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="123" ht="14.25" customHeight="1">
+    <row r="123" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>140</v>
       </c>
@@ -4284,13 +4320,13 @@
         <v>52</v>
       </c>
       <c r="C123" s="3">
-        <v>2112.0</v>
+        <v>2112</v>
       </c>
       <c r="D123" s="3">
-        <v>211.0</v>
+        <v>211</v>
       </c>
       <c r="E123" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>9</v>
@@ -4302,7 +4338,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="124" ht="14.25" customHeight="1">
+    <row r="124" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>141</v>
       </c>
@@ -4310,13 +4346,13 @@
         <v>52</v>
       </c>
       <c r="C124" s="3">
-        <v>2113.0</v>
+        <v>2113</v>
       </c>
       <c r="D124" s="3">
-        <v>211.0</v>
+        <v>211</v>
       </c>
       <c r="E124" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>9</v>
@@ -4328,7 +4364,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="125" ht="14.25" customHeight="1">
+    <row r="125" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>142</v>
       </c>
@@ -4336,13 +4372,13 @@
         <v>52</v>
       </c>
       <c r="C125" s="3">
-        <v>2114.0</v>
+        <v>2114</v>
       </c>
       <c r="D125" s="3">
-        <v>211.0</v>
+        <v>211</v>
       </c>
       <c r="E125" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>9</v>
@@ -4354,7 +4390,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="126" ht="14.25" customHeight="1">
+    <row r="126" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>143</v>
       </c>
@@ -4362,13 +4398,13 @@
         <v>52</v>
       </c>
       <c r="C126" s="3">
-        <v>2115.0</v>
+        <v>2115</v>
       </c>
       <c r="D126" s="3">
-        <v>211.0</v>
+        <v>211</v>
       </c>
       <c r="E126" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>9</v>
@@ -4380,7 +4416,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="127" ht="14.25" customHeight="1">
+    <row r="127" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>144</v>
       </c>
@@ -4388,13 +4424,13 @@
         <v>12</v>
       </c>
       <c r="C127" s="3">
-        <v>2118.0</v>
+        <v>2118</v>
       </c>
       <c r="D127" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E127" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>9</v>
@@ -4406,7 +4442,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="128" ht="14.25" customHeight="1">
+    <row r="128" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>145</v>
       </c>
@@ -4414,13 +4450,13 @@
         <v>53</v>
       </c>
       <c r="C128" s="3">
-        <v>2121.0</v>
+        <v>2121</v>
       </c>
       <c r="D128" s="3">
-        <v>212.0</v>
+        <v>212</v>
       </c>
       <c r="E128" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>9</v>
@@ -4432,7 +4468,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="129" ht="14.25" customHeight="1">
+    <row r="129" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>146</v>
       </c>
@@ -4440,13 +4476,13 @@
         <v>53</v>
       </c>
       <c r="C129" s="3">
-        <v>2122.0</v>
+        <v>2122</v>
       </c>
       <c r="D129" s="3">
-        <v>212.0</v>
+        <v>212</v>
       </c>
       <c r="E129" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>9</v>
@@ -4458,7 +4494,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="130" ht="14.25" customHeight="1">
+    <row r="130" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>147</v>
       </c>
@@ -4466,13 +4502,13 @@
         <v>54</v>
       </c>
       <c r="C130" s="3">
-        <v>2131.0</v>
+        <v>2131</v>
       </c>
       <c r="D130" s="3">
-        <v>213.0</v>
+        <v>213</v>
       </c>
       <c r="E130" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>9</v>
@@ -4484,7 +4520,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="131" ht="14.25" customHeight="1">
+    <row r="131" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>148</v>
       </c>
@@ -4492,13 +4528,13 @@
         <v>54</v>
       </c>
       <c r="C131" s="3">
-        <v>2132.0</v>
+        <v>2132</v>
       </c>
       <c r="D131" s="3">
-        <v>213.0</v>
+        <v>213</v>
       </c>
       <c r="E131" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>9</v>
@@ -4510,7 +4546,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="132" ht="14.25" customHeight="1">
+    <row r="132" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>149</v>
       </c>
@@ -4518,13 +4554,13 @@
         <v>54</v>
       </c>
       <c r="C132" s="3">
-        <v>2133.0</v>
+        <v>2133</v>
       </c>
       <c r="D132" s="3">
-        <v>213.0</v>
+        <v>213</v>
       </c>
       <c r="E132" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>9</v>
@@ -4536,7 +4572,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="133" ht="14.25" customHeight="1">
+    <row r="133" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>150</v>
       </c>
@@ -4544,13 +4580,13 @@
         <v>54</v>
       </c>
       <c r="C133" s="3">
-        <v>2134.0</v>
+        <v>2134</v>
       </c>
       <c r="D133" s="3">
-        <v>213.0</v>
+        <v>213</v>
       </c>
       <c r="E133" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>9</v>
@@ -4562,7 +4598,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="134" ht="14.25" customHeight="1">
+    <row r="134" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>151</v>
       </c>
@@ -4570,13 +4606,13 @@
         <v>54</v>
       </c>
       <c r="C134" s="3">
-        <v>2135.0</v>
+        <v>2135</v>
       </c>
       <c r="D134" s="3">
-        <v>213.0</v>
+        <v>213</v>
       </c>
       <c r="E134" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>9</v>
@@ -4588,7 +4624,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="135" ht="14.25" customHeight="1">
+    <row r="135" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>152</v>
       </c>
@@ -4596,13 +4632,13 @@
         <v>54</v>
       </c>
       <c r="C135" s="3">
-        <v>2136.0</v>
+        <v>2136</v>
       </c>
       <c r="D135" s="3">
-        <v>213.0</v>
+        <v>213</v>
       </c>
       <c r="E135" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>9</v>
@@ -4614,7 +4650,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="136" ht="14.25" customHeight="1">
+    <row r="136" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>153</v>
       </c>
@@ -4622,13 +4658,13 @@
         <v>54</v>
       </c>
       <c r="C136" s="3">
-        <v>2138.0</v>
+        <v>2138</v>
       </c>
       <c r="D136" s="3">
-        <v>213.0</v>
+        <v>213</v>
       </c>
       <c r="E136" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>9</v>
@@ -4640,7 +4676,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="137" ht="14.25" customHeight="1">
+    <row r="137" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>154</v>
       </c>
@@ -4648,13 +4684,13 @@
         <v>55</v>
       </c>
       <c r="C137" s="3">
-        <v>2141.0</v>
+        <v>2141</v>
       </c>
       <c r="D137" s="3">
-        <v>214.0</v>
+        <v>214</v>
       </c>
       <c r="E137" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>56</v>
@@ -4666,7 +4702,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="138" ht="14.25" customHeight="1">
+    <row r="138" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>155</v>
       </c>
@@ -4674,13 +4710,13 @@
         <v>55</v>
       </c>
       <c r="C138" s="3">
-        <v>2142.0</v>
+        <v>2142</v>
       </c>
       <c r="D138" s="3">
-        <v>214.0</v>
+        <v>214</v>
       </c>
       <c r="E138" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>56</v>
@@ -4692,7 +4728,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="139" ht="14.25" customHeight="1">
+    <row r="139" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>156</v>
       </c>
@@ -4700,13 +4736,13 @@
         <v>55</v>
       </c>
       <c r="C139" s="3">
-        <v>2143.0</v>
+        <v>2143</v>
       </c>
       <c r="D139" s="3">
-        <v>214.0</v>
+        <v>214</v>
       </c>
       <c r="E139" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>56</v>
@@ -4718,7 +4754,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="140" ht="14.25" customHeight="1">
+    <row r="140" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>157</v>
       </c>
@@ -4726,13 +4762,13 @@
         <v>55</v>
       </c>
       <c r="C140" s="3">
-        <v>2147.0</v>
+        <v>2147</v>
       </c>
       <c r="D140" s="3">
-        <v>214.0</v>
+        <v>214</v>
       </c>
       <c r="E140" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>56</v>
@@ -4744,7 +4780,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="141" ht="14.25" customHeight="1">
+    <row r="141" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>158</v>
       </c>
@@ -4752,13 +4788,13 @@
         <v>60</v>
       </c>
       <c r="C141" s="3">
-        <v>2281.0</v>
+        <v>2281</v>
       </c>
       <c r="D141" s="3">
-        <v>228.0</v>
+        <v>228</v>
       </c>
       <c r="E141" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>9</v>
@@ -4770,7 +4806,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="142" ht="14.25" customHeight="1">
+    <row r="142" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>60</v>
       </c>
@@ -4778,13 +4814,13 @@
         <v>60</v>
       </c>
       <c r="C142" s="3">
-        <v>2288.0</v>
+        <v>2288</v>
       </c>
       <c r="D142" s="3">
-        <v>228.0</v>
+        <v>228</v>
       </c>
       <c r="E142" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>9</v>
@@ -4796,7 +4832,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="143" ht="14.25" customHeight="1">
+    <row r="143" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>159</v>
       </c>
@@ -4804,13 +4840,13 @@
         <v>61</v>
       </c>
       <c r="C143" s="3">
-        <v>2291.0</v>
+        <v>2291</v>
       </c>
       <c r="D143" s="3">
-        <v>229.0</v>
+        <v>229</v>
       </c>
       <c r="E143" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>9</v>
@@ -4822,7 +4858,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="144" ht="14.25" customHeight="1">
+    <row r="144" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>160</v>
       </c>
@@ -4830,13 +4866,13 @@
         <v>61</v>
       </c>
       <c r="C144" s="3">
-        <v>2292.0</v>
+        <v>2292</v>
       </c>
       <c r="D144" s="3">
-        <v>229.0</v>
+        <v>229</v>
       </c>
       <c r="E144" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>9</v>
@@ -4848,7 +4884,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="145" ht="14.25" customHeight="1">
+    <row r="145" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>161</v>
       </c>
@@ -4856,13 +4892,13 @@
         <v>61</v>
       </c>
       <c r="C145" s="3">
-        <v>2293.0</v>
+        <v>2293</v>
       </c>
       <c r="D145" s="3">
-        <v>229.0</v>
+        <v>229</v>
       </c>
       <c r="E145" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>9</v>
@@ -4874,7 +4910,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="146" ht="14.25" customHeight="1">
+    <row r="146" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>162</v>
       </c>
@@ -4882,13 +4918,13 @@
         <v>61</v>
       </c>
       <c r="C146" s="3">
-        <v>2294.0</v>
+        <v>2294</v>
       </c>
       <c r="D146" s="3">
-        <v>229.0</v>
+        <v>229</v>
       </c>
       <c r="E146" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>9</v>
@@ -4900,7 +4936,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="147" ht="14.25" customHeight="1">
+    <row r="147" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>163</v>
       </c>
@@ -4908,13 +4944,13 @@
         <v>62</v>
       </c>
       <c r="C147" s="3">
-        <v>2411.0</v>
+        <v>2411</v>
       </c>
       <c r="D147" s="3">
-        <v>241.0</v>
+        <v>241</v>
       </c>
       <c r="E147" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>9</v>
@@ -4926,7 +4962,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="148" ht="14.25" customHeight="1">
+    <row r="148" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>164</v>
       </c>
@@ -4934,13 +4970,13 @@
         <v>62</v>
       </c>
       <c r="C148" s="3">
-        <v>2412.0</v>
+        <v>2412</v>
       </c>
       <c r="D148" s="3">
-        <v>241.0</v>
+        <v>241</v>
       </c>
       <c r="E148" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>9</v>
@@ -4952,7 +4988,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="149" ht="14.25" customHeight="1">
+    <row r="149" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>165</v>
       </c>
@@ -4960,13 +4996,13 @@
         <v>62</v>
       </c>
       <c r="C149" s="3">
-        <v>2413.0</v>
+        <v>2413</v>
       </c>
       <c r="D149" s="3">
-        <v>241.0</v>
+        <v>241</v>
       </c>
       <c r="E149" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>9</v>
@@ -4978,7 +5014,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="150" ht="14.25" customHeight="1">
+    <row r="150" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>166</v>
       </c>
@@ -4986,13 +5022,13 @@
         <v>68</v>
       </c>
       <c r="C150" s="3">
-        <v>3331.0</v>
+        <v>3331</v>
       </c>
       <c r="D150" s="3">
-        <v>333.0</v>
+        <v>333</v>
       </c>
       <c r="E150" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>35</v>
@@ -5004,7 +5040,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="151" ht="14.25" customHeight="1">
+    <row r="151" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>167</v>
       </c>
@@ -5012,13 +5048,13 @@
         <v>68</v>
       </c>
       <c r="C151" s="3">
-        <v>3332.0</v>
+        <v>3332</v>
       </c>
       <c r="D151" s="3">
-        <v>333.0</v>
+        <v>333</v>
       </c>
       <c r="E151" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>35</v>
@@ -5030,7 +5066,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="152" ht="14.25" customHeight="1">
+    <row r="152" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>168</v>
       </c>
@@ -5038,13 +5074,13 @@
         <v>68</v>
       </c>
       <c r="C152" s="3">
-        <v>3333.0</v>
+        <v>3333</v>
       </c>
       <c r="D152" s="3">
-        <v>333.0</v>
+        <v>333</v>
       </c>
       <c r="E152" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>35</v>
@@ -5056,7 +5092,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="153" ht="14.25" customHeight="1">
+    <row r="153" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>169</v>
       </c>
@@ -5064,13 +5100,13 @@
         <v>68</v>
       </c>
       <c r="C153" s="3">
-        <v>3334.0</v>
+        <v>3334</v>
       </c>
       <c r="D153" s="3">
-        <v>333.0</v>
+        <v>333</v>
       </c>
       <c r="E153" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>35</v>
@@ -5082,7 +5118,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="154" ht="14.25" customHeight="1">
+    <row r="154" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>170</v>
       </c>
@@ -5090,13 +5126,13 @@
         <v>68</v>
       </c>
       <c r="C154" s="3">
-        <v>3335.0</v>
+        <v>3335</v>
       </c>
       <c r="D154" s="3">
-        <v>333.0</v>
+        <v>333</v>
       </c>
       <c r="E154" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>35</v>
@@ -5108,7 +5144,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="155" ht="14.25" customHeight="1">
+    <row r="155" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>171</v>
       </c>
@@ -5116,13 +5152,13 @@
         <v>68</v>
       </c>
       <c r="C155" s="3">
-        <v>3336.0</v>
+        <v>3336</v>
       </c>
       <c r="D155" s="3">
-        <v>333.0</v>
+        <v>333</v>
       </c>
       <c r="E155" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>35</v>
@@ -5134,7 +5170,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="156" ht="14.25" customHeight="1">
+    <row r="156" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>172</v>
       </c>
@@ -5142,13 +5178,13 @@
         <v>68</v>
       </c>
       <c r="C156" s="3">
-        <v>3337.0</v>
+        <v>3337</v>
       </c>
       <c r="D156" s="3">
-        <v>333.0</v>
+        <v>333</v>
       </c>
       <c r="E156" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>35</v>
@@ -5160,7 +5196,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="157" ht="14.25" customHeight="1">
+    <row r="157" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>173</v>
       </c>
@@ -5168,13 +5204,13 @@
         <v>68</v>
       </c>
       <c r="C157" s="3">
-        <v>3338.0</v>
+        <v>3338</v>
       </c>
       <c r="D157" s="3">
-        <v>333.0</v>
+        <v>333</v>
       </c>
       <c r="E157" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>35</v>
@@ -5186,7 +5222,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="158" ht="14.25" customHeight="1">
+    <row r="158" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>174</v>
       </c>
@@ -5194,13 +5230,13 @@
         <v>13</v>
       </c>
       <c r="C158" s="3">
-        <v>3339.0</v>
+        <v>3339</v>
       </c>
       <c r="D158" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E158" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>35</v>
@@ -5212,7 +5248,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="159" ht="14.25" customHeight="1">
+    <row r="159" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>175</v>
       </c>
@@ -5220,13 +5256,13 @@
         <v>69</v>
       </c>
       <c r="C159" s="3">
-        <v>3341.0</v>
+        <v>3341</v>
       </c>
       <c r="D159" s="3">
-        <v>334.0</v>
+        <v>334</v>
       </c>
       <c r="E159" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>67</v>
@@ -5238,7 +5274,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="160" ht="14.25" customHeight="1">
+    <row r="160" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>176</v>
       </c>
@@ -5246,13 +5282,13 @@
         <v>69</v>
       </c>
       <c r="C160" s="3">
-        <v>3348.0</v>
+        <v>3348</v>
       </c>
       <c r="D160" s="3">
-        <v>334.0</v>
+        <v>334</v>
       </c>
       <c r="E160" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>67</v>
@@ -5264,7 +5300,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="161" ht="14.25" customHeight="1">
+    <row r="161" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>177</v>
       </c>
@@ -5272,13 +5308,13 @@
         <v>71</v>
       </c>
       <c r="C161" s="3">
-        <v>3361.0</v>
+        <v>3361</v>
       </c>
       <c r="D161" s="3">
-        <v>336.0</v>
+        <v>336</v>
       </c>
       <c r="E161" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>9</v>
@@ -5290,7 +5326,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="162" ht="14.25" customHeight="1">
+    <row r="162" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>178</v>
       </c>
@@ -5298,13 +5334,13 @@
         <v>71</v>
       </c>
       <c r="C162" s="3">
-        <v>3362.0</v>
+        <v>3362</v>
       </c>
       <c r="D162" s="3">
-        <v>336.0</v>
+        <v>336</v>
       </c>
       <c r="E162" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>9</v>
@@ -5316,7 +5352,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="163" ht="14.25" customHeight="1">
+    <row r="163" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>179</v>
       </c>
@@ -5324,13 +5360,13 @@
         <v>71</v>
       </c>
       <c r="C163" s="3">
-        <v>3363.0</v>
+        <v>3363</v>
       </c>
       <c r="D163" s="3">
-        <v>336.0</v>
+        <v>336</v>
       </c>
       <c r="E163" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>9</v>
@@ -5342,7 +5378,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="164" ht="14.25" customHeight="1">
+    <row r="164" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>180</v>
       </c>
@@ -5350,13 +5386,13 @@
         <v>71</v>
       </c>
       <c r="C164" s="3">
-        <v>3368.0</v>
+        <v>3368</v>
       </c>
       <c r="D164" s="3">
-        <v>336.0</v>
+        <v>336</v>
       </c>
       <c r="E164" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>9</v>
@@ -5368,7 +5404,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="165" ht="14.25" customHeight="1">
+    <row r="165" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>181</v>
       </c>
@@ -5376,13 +5412,13 @@
         <v>73</v>
       </c>
       <c r="C165" s="3">
-        <v>3381.0</v>
+        <v>3381</v>
       </c>
       <c r="D165" s="3">
-        <v>338.0</v>
+        <v>338</v>
       </c>
       <c r="E165" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>9</v>
@@ -5394,7 +5430,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="166" ht="14.25" customHeight="1">
+    <row r="166" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>182</v>
       </c>
@@ -5402,13 +5438,13 @@
         <v>73</v>
       </c>
       <c r="C166" s="3">
-        <v>3382.0</v>
+        <v>3382</v>
       </c>
       <c r="D166" s="3">
-        <v>338.0</v>
+        <v>338</v>
       </c>
       <c r="E166" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>9</v>
@@ -5420,7 +5456,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="167" ht="14.25" customHeight="1">
+    <row r="167" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>183</v>
       </c>
@@ -5428,13 +5464,13 @@
         <v>73</v>
       </c>
       <c r="C167" s="3">
-        <v>3383.0</v>
+        <v>3383</v>
       </c>
       <c r="D167" s="3">
-        <v>338.0</v>
+        <v>338</v>
       </c>
       <c r="E167" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>9</v>
@@ -5446,7 +5482,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="168" ht="14.25" customHeight="1">
+    <row r="168" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>184</v>
       </c>
@@ -5454,13 +5490,13 @@
         <v>73</v>
       </c>
       <c r="C168" s="3">
-        <v>3384.0</v>
+        <v>3384</v>
       </c>
       <c r="D168" s="3">
-        <v>338.0</v>
+        <v>338</v>
       </c>
       <c r="E168" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>9</v>
@@ -5472,7 +5508,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="169" ht="14.25" customHeight="1">
+    <row r="169" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
         <v>185</v>
       </c>
@@ -5480,13 +5516,13 @@
         <v>73</v>
       </c>
       <c r="C169" s="3">
-        <v>3385.0</v>
+        <v>3385</v>
       </c>
       <c r="D169" s="3">
-        <v>338.0</v>
+        <v>338</v>
       </c>
       <c r="E169" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>9</v>
@@ -5498,7 +5534,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="170" ht="14.25" customHeight="1">
+    <row r="170" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
         <v>186</v>
       </c>
@@ -5506,13 +5542,13 @@
         <v>73</v>
       </c>
       <c r="C170" s="3">
-        <v>3386.0</v>
+        <v>3386</v>
       </c>
       <c r="D170" s="3">
-        <v>338.0</v>
+        <v>338</v>
       </c>
       <c r="E170" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>9</v>
@@ -5524,7 +5560,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="171" ht="14.25" customHeight="1">
+    <row r="171" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>187</v>
       </c>
@@ -5532,13 +5568,13 @@
         <v>73</v>
       </c>
       <c r="C171" s="3">
-        <v>3387.0</v>
+        <v>3387</v>
       </c>
       <c r="D171" s="3">
-        <v>338.0</v>
+        <v>338</v>
       </c>
       <c r="E171" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>9</v>
@@ -5550,7 +5586,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="172" ht="14.25" customHeight="1">
+    <row r="172" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
         <v>73</v>
       </c>
@@ -5558,13 +5594,13 @@
         <v>73</v>
       </c>
       <c r="C172" s="3">
-        <v>3388.0</v>
+        <v>3388</v>
       </c>
       <c r="D172" s="3">
-        <v>338.0</v>
+        <v>338</v>
       </c>
       <c r="E172" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>9</v>
@@ -5576,7 +5612,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="173" ht="14.25" customHeight="1">
+    <row r="173" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>188</v>
       </c>
@@ -5584,13 +5620,13 @@
         <v>74</v>
       </c>
       <c r="C173" s="3">
-        <v>3411.0</v>
+        <v>3411</v>
       </c>
       <c r="D173" s="3">
-        <v>341.0</v>
+        <v>341</v>
       </c>
       <c r="E173" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>9</v>
@@ -5602,7 +5638,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="174" ht="14.25" customHeight="1">
+    <row r="174" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
         <v>189</v>
       </c>
@@ -5610,13 +5646,13 @@
         <v>74</v>
       </c>
       <c r="C174" s="3">
-        <v>3412.0</v>
+        <v>3412</v>
       </c>
       <c r="D174" s="3">
-        <v>341.0</v>
+        <v>341</v>
       </c>
       <c r="E174" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>9</v>
@@ -5628,7 +5664,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="175" ht="14.25" customHeight="1">
+    <row r="175" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
         <v>190</v>
       </c>
@@ -5636,13 +5672,13 @@
         <v>75</v>
       </c>
       <c r="C175" s="3">
-        <v>3431.0</v>
+        <v>3431</v>
       </c>
       <c r="D175" s="3">
-        <v>343.0</v>
+        <v>343</v>
       </c>
       <c r="E175" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>9</v>
@@ -5654,7 +5690,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="176" ht="14.25" customHeight="1">
+    <row r="176" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
         <v>191</v>
       </c>
@@ -5662,13 +5698,13 @@
         <v>75</v>
       </c>
       <c r="C176" s="3">
-        <v>3432.0</v>
+        <v>3432</v>
       </c>
       <c r="D176" s="3">
-        <v>343.0</v>
+        <v>343</v>
       </c>
       <c r="E176" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>9</v>
@@ -5680,7 +5716,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="177" ht="14.25" customHeight="1">
+    <row r="177" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
         <v>192</v>
       </c>
@@ -5688,13 +5724,13 @@
         <v>78</v>
       </c>
       <c r="C177" s="3">
-        <v>3521.0</v>
+        <v>3521</v>
       </c>
       <c r="D177" s="3">
-        <v>352.0</v>
+        <v>352</v>
       </c>
       <c r="E177" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>9</v>
@@ -5706,7 +5742,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="178" ht="14.25" customHeight="1">
+    <row r="178" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>193</v>
       </c>
@@ -5714,13 +5750,13 @@
         <v>78</v>
       </c>
       <c r="C178" s="3">
-        <v>3522.0</v>
+        <v>3522</v>
       </c>
       <c r="D178" s="3">
-        <v>352.0</v>
+        <v>352</v>
       </c>
       <c r="E178" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>9</v>
@@ -5732,7 +5768,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="179" ht="14.25" customHeight="1">
+    <row r="179" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
         <v>194</v>
       </c>
@@ -5740,13 +5776,13 @@
         <v>78</v>
       </c>
       <c r="C179" s="3">
-        <v>3523.0</v>
+        <v>3523</v>
       </c>
       <c r="D179" s="3">
-        <v>352.0</v>
+        <v>352</v>
       </c>
       <c r="E179" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>9</v>
@@ -5758,7 +5794,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="180" ht="14.25" customHeight="1">
+    <row r="180" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>195</v>
       </c>
@@ -5766,13 +5802,13 @@
         <v>78</v>
       </c>
       <c r="C180" s="3">
-        <v>3524.0</v>
+        <v>3524</v>
       </c>
       <c r="D180" s="3">
-        <v>352.0</v>
+        <v>352</v>
       </c>
       <c r="E180" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>9</v>
@@ -5784,7 +5820,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="181" ht="14.25" customHeight="1">
+    <row r="181" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>196</v>
       </c>
@@ -5792,13 +5828,13 @@
         <v>79</v>
       </c>
       <c r="C181" s="3">
-        <v>3531.0</v>
+        <v>3531</v>
       </c>
       <c r="D181" s="3">
-        <v>353.0</v>
+        <v>353</v>
       </c>
       <c r="E181" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>9</v>
@@ -5810,7 +5846,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="182" ht="14.25" customHeight="1">
+    <row r="182" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
         <v>197</v>
       </c>
@@ -5818,13 +5854,13 @@
         <v>79</v>
       </c>
       <c r="C182" s="3">
-        <v>3532.0</v>
+        <v>3532</v>
       </c>
       <c r="D182" s="3">
-        <v>353.0</v>
+        <v>353</v>
       </c>
       <c r="E182" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>9</v>
@@ -5836,7 +5872,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="183" ht="14.25" customHeight="1">
+    <row r="183" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
         <v>198</v>
       </c>
@@ -5844,13 +5880,13 @@
         <v>79</v>
       </c>
       <c r="C183" s="3">
-        <v>3533.0</v>
+        <v>3533</v>
       </c>
       <c r="D183" s="3">
-        <v>353.0</v>
+        <v>353</v>
       </c>
       <c r="E183" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>9</v>
@@ -5862,7 +5898,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="184" ht="14.25" customHeight="1">
+    <row r="184" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
         <v>199</v>
       </c>
@@ -5870,13 +5906,13 @@
         <v>79</v>
       </c>
       <c r="C184" s="3">
-        <v>3534.0</v>
+        <v>3534</v>
       </c>
       <c r="D184" s="3">
-        <v>353.0</v>
+        <v>353</v>
       </c>
       <c r="E184" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>9</v>
@@ -5888,7 +5924,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="185" ht="14.25" customHeight="1">
+    <row r="185" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
         <v>80</v>
       </c>
@@ -5896,13 +5932,13 @@
         <v>80</v>
       </c>
       <c r="C185" s="3">
-        <v>3561.0</v>
+        <v>3561</v>
       </c>
       <c r="D185" s="3">
-        <v>356.0</v>
+        <v>356</v>
       </c>
       <c r="E185" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>9</v>
@@ -5914,7 +5950,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="186" ht="14.25" customHeight="1">
+    <row r="186" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
         <v>200</v>
       </c>
@@ -5922,13 +5958,13 @@
         <v>80</v>
       </c>
       <c r="C186" s="3">
-        <v>3562.0</v>
+        <v>3562</v>
       </c>
       <c r="D186" s="3">
-        <v>356.0</v>
+        <v>356</v>
       </c>
       <c r="E186" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>9</v>
@@ -5940,7 +5976,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="187" ht="14.25" customHeight="1">
+    <row r="187" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
         <v>201</v>
       </c>
@@ -5948,13 +5984,13 @@
         <v>82</v>
       </c>
       <c r="C187" s="3">
-        <v>4111.0</v>
+        <v>4111</v>
       </c>
       <c r="D187" s="3">
-        <v>411.0</v>
+        <v>411</v>
       </c>
       <c r="E187" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>9</v>
@@ -5966,7 +6002,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="188" ht="14.25" customHeight="1">
+    <row r="188" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
         <v>202</v>
       </c>
@@ -5974,13 +6010,13 @@
         <v>82</v>
       </c>
       <c r="C188" s="3">
-        <v>4112.0</v>
+        <v>4112</v>
       </c>
       <c r="D188" s="3">
-        <v>411.0</v>
+        <v>411</v>
       </c>
       <c r="E188" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>9</v>
@@ -5992,7 +6028,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="189" ht="14.25" customHeight="1">
+    <row r="189" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
         <v>203</v>
       </c>
@@ -6000,13 +6036,13 @@
         <v>82</v>
       </c>
       <c r="C189" s="3">
-        <v>4113.0</v>
+        <v>4113</v>
       </c>
       <c r="D189" s="3">
-        <v>411.0</v>
+        <v>411</v>
       </c>
       <c r="E189" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>9</v>
@@ -6018,7 +6054,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="190" ht="14.25" customHeight="1">
+    <row r="190" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
         <v>204</v>
       </c>
@@ -6026,13 +6062,13 @@
         <v>82</v>
       </c>
       <c r="C190" s="3">
-        <v>4118.0</v>
+        <v>4118</v>
       </c>
       <c r="D190" s="3">
-        <v>411.0</v>
+        <v>411</v>
       </c>
       <c r="E190" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>9</v>
@@ -6044,7 +6080,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="191" ht="14.25" customHeight="1">
+    <row r="191" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
         <v>205</v>
       </c>
@@ -6052,13 +6088,13 @@
         <v>84</v>
       </c>
       <c r="C191" s="3">
-        <v>4131.0</v>
+        <v>4131</v>
       </c>
       <c r="D191" s="3">
-        <v>413.0</v>
+        <v>413</v>
       </c>
       <c r="E191" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>9</v>
@@ -6070,7 +6106,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="192" ht="14.25" customHeight="1">
+    <row r="192" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
         <v>206</v>
       </c>
@@ -6078,13 +6114,13 @@
         <v>84</v>
       </c>
       <c r="C192" s="3">
-        <v>4132.0</v>
+        <v>4132</v>
       </c>
       <c r="D192" s="3">
-        <v>413.0</v>
+        <v>413</v>
       </c>
       <c r="E192" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>9</v>
@@ -6096,7 +6132,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="193" ht="14.25" customHeight="1">
+    <row r="193" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
         <v>207</v>
       </c>
@@ -6104,13 +6140,13 @@
         <v>89</v>
       </c>
       <c r="C193" s="3">
-        <v>4211.0</v>
+        <v>4211</v>
       </c>
       <c r="D193" s="3">
-        <v>421.0</v>
+        <v>421</v>
       </c>
       <c r="E193" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>9</v>
@@ -6122,7 +6158,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="194" ht="14.25" customHeight="1">
+    <row r="194" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
         <v>208</v>
       </c>
@@ -6130,13 +6166,13 @@
         <v>89</v>
       </c>
       <c r="C194" s="3">
-        <v>4212.0</v>
+        <v>4212</v>
       </c>
       <c r="D194" s="3">
-        <v>421.0</v>
+        <v>421</v>
       </c>
       <c r="E194" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>9</v>
@@ -6148,7 +6184,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="195" ht="14.25" customHeight="1">
+    <row r="195" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
         <v>209</v>
       </c>
@@ -6156,13 +6192,13 @@
         <v>91</v>
       </c>
       <c r="C195" s="3">
-        <v>4611.0</v>
+        <v>4611</v>
       </c>
       <c r="D195" s="3">
-        <v>461.0</v>
+        <v>461</v>
       </c>
       <c r="E195" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>9</v>
@@ -6174,7 +6210,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="196" ht="14.25" customHeight="1">
+    <row r="196" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
         <v>210</v>
       </c>
@@ -6182,13 +6218,13 @@
         <v>91</v>
       </c>
       <c r="C196" s="3">
-        <v>4612.0</v>
+        <v>4612</v>
       </c>
       <c r="D196" s="3">
-        <v>461.0</v>
+        <v>461</v>
       </c>
       <c r="E196" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>9</v>
@@ -6200,7 +6236,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="197" ht="14.25" customHeight="1">
+    <row r="197" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
         <v>211</v>
       </c>
@@ -6208,13 +6244,13 @@
         <v>93</v>
       </c>
       <c r="C197" s="3">
-        <v>5111.0</v>
+        <v>5111</v>
       </c>
       <c r="D197" s="3">
-        <v>511.0</v>
+        <v>511</v>
       </c>
       <c r="E197" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>9</v>
@@ -6226,7 +6262,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="198" ht="14.25" customHeight="1">
+    <row r="198" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
         <v>212</v>
       </c>
@@ -6234,13 +6270,13 @@
         <v>93</v>
       </c>
       <c r="C198" s="3">
-        <v>5112.0</v>
+        <v>5112</v>
       </c>
       <c r="D198" s="3">
-        <v>511.0</v>
+        <v>511</v>
       </c>
       <c r="E198" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>9</v>
@@ -6252,7 +6288,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="199" ht="14.25" customHeight="1">
+    <row r="199" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
         <v>213</v>
       </c>
@@ -6260,13 +6296,13 @@
         <v>93</v>
       </c>
       <c r="C199" s="3">
-        <v>5113.0</v>
+        <v>5113</v>
       </c>
       <c r="D199" s="3">
-        <v>511.0</v>
+        <v>511</v>
       </c>
       <c r="E199" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>9</v>
@@ -6278,7 +6314,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="200" ht="14.25" customHeight="1">
+    <row r="200" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
         <v>214</v>
       </c>
@@ -6286,13 +6322,13 @@
         <v>93</v>
       </c>
       <c r="C200" s="3">
-        <v>5114.0</v>
+        <v>5114</v>
       </c>
       <c r="D200" s="3">
-        <v>511.0</v>
+        <v>511</v>
       </c>
       <c r="E200" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>9</v>
@@ -6304,7 +6340,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="201" ht="14.25" customHeight="1">
+    <row r="201" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
         <v>215</v>
       </c>
@@ -6312,13 +6348,13 @@
         <v>93</v>
       </c>
       <c r="C201" s="3">
-        <v>5117.0</v>
+        <v>5117</v>
       </c>
       <c r="D201" s="3">
-        <v>511.0</v>
+        <v>511</v>
       </c>
       <c r="E201" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>9</v>
@@ -6330,7 +6366,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="202" ht="14.25" customHeight="1">
+    <row r="202" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
         <v>216</v>
       </c>
@@ -6338,13 +6374,13 @@
         <v>93</v>
       </c>
       <c r="C202" s="3">
-        <v>5118.0</v>
+        <v>5118</v>
       </c>
       <c r="D202" s="3">
-        <v>511.0</v>
+        <v>511</v>
       </c>
       <c r="E202" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>9</v>
@@ -6356,7 +6392,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="203" ht="14.25" customHeight="1">
+    <row r="203" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
         <v>217</v>
       </c>
@@ -6364,13 +6400,13 @@
         <v>95</v>
       </c>
       <c r="C203" s="3">
-        <v>5211.0</v>
+        <v>5211</v>
       </c>
       <c r="D203" s="3">
-        <v>521.0</v>
+        <v>521</v>
       </c>
       <c r="E203" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>9</v>
@@ -6382,7 +6418,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="204" ht="14.25" customHeight="1">
+    <row r="204" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
         <v>218</v>
       </c>
@@ -6390,13 +6426,13 @@
         <v>95</v>
       </c>
       <c r="C204" s="3">
-        <v>5212.0</v>
+        <v>5212</v>
       </c>
       <c r="D204" s="3">
-        <v>521.0</v>
+        <v>521</v>
       </c>
       <c r="E204" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>9</v>
@@ -6408,7 +6444,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="205" ht="14.25" customHeight="1">
+    <row r="205" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
         <v>219</v>
       </c>
@@ -6416,13 +6452,13 @@
         <v>95</v>
       </c>
       <c r="C205" s="3">
-        <v>5213.0</v>
+        <v>5213</v>
       </c>
       <c r="D205" s="3">
-        <v>521.0</v>
+        <v>521</v>
       </c>
       <c r="E205" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>9</v>
@@ -6434,7 +6470,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="206" ht="14.25" customHeight="1">
+    <row r="206" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
         <v>220</v>
       </c>
@@ -6442,13 +6478,13 @@
         <v>96</v>
       </c>
       <c r="C206" s="3">
-        <v>6111.0</v>
+        <v>6111</v>
       </c>
       <c r="D206" s="3">
-        <v>611.0</v>
+        <v>611</v>
       </c>
       <c r="E206" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>20</v>
@@ -6460,7 +6496,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="207" ht="14.25" customHeight="1">
+    <row r="207" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
         <v>221</v>
       </c>
@@ -6468,13 +6504,13 @@
         <v>96</v>
       </c>
       <c r="C207" s="3">
-        <v>6112.0</v>
+        <v>6112</v>
       </c>
       <c r="D207" s="3">
-        <v>611.0</v>
+        <v>611</v>
       </c>
       <c r="E207" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>20</v>
@@ -6486,7 +6522,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="208" ht="14.25" customHeight="1">
+    <row r="208" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
         <v>222</v>
       </c>
@@ -6494,13 +6530,13 @@
         <v>99</v>
       </c>
       <c r="C208" s="3">
-        <v>6231.0</v>
+        <v>6231</v>
       </c>
       <c r="D208" s="3">
-        <v>623.0</v>
+        <v>623</v>
       </c>
       <c r="E208" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>20</v>
@@ -6512,7 +6548,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="209" ht="14.25" customHeight="1">
+    <row r="209" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
         <v>223</v>
       </c>
@@ -6520,13 +6556,13 @@
         <v>99</v>
       </c>
       <c r="C209" s="3">
-        <v>6232.0</v>
+        <v>6232</v>
       </c>
       <c r="D209" s="3">
-        <v>623.0</v>
+        <v>623</v>
       </c>
       <c r="E209" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>20</v>
@@ -6538,7 +6574,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="210" ht="14.25" customHeight="1">
+    <row r="210" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
         <v>224</v>
       </c>
@@ -6546,13 +6582,13 @@
         <v>99</v>
       </c>
       <c r="C210" s="3">
-        <v>6233.0</v>
+        <v>6233</v>
       </c>
       <c r="D210" s="3">
-        <v>623.0</v>
+        <v>623</v>
       </c>
       <c r="E210" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>20</v>
@@ -6564,7 +6600,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="211" ht="14.25" customHeight="1">
+    <row r="211" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
         <v>225</v>
       </c>
@@ -6572,13 +6608,13 @@
         <v>99</v>
       </c>
       <c r="C211" s="3">
-        <v>6234.0</v>
+        <v>6234</v>
       </c>
       <c r="D211" s="3">
-        <v>623.0</v>
+        <v>623</v>
       </c>
       <c r="E211" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>20</v>
@@ -6590,7 +6626,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="212" ht="14.25" customHeight="1">
+    <row r="212" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
         <v>226</v>
       </c>
@@ -6598,13 +6634,13 @@
         <v>99</v>
       </c>
       <c r="C212" s="3">
-        <v>6237.0</v>
+        <v>6237</v>
       </c>
       <c r="D212" s="3">
-        <v>623.0</v>
+        <v>623</v>
       </c>
       <c r="E212" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>20</v>
@@ -6616,7 +6652,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="213" ht="14.25" customHeight="1">
+    <row r="213" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
         <v>227</v>
       </c>
@@ -6624,13 +6660,13 @@
         <v>99</v>
       </c>
       <c r="C213" s="3">
-        <v>6238.0</v>
+        <v>6238</v>
       </c>
       <c r="D213" s="3">
-        <v>623.0</v>
+        <v>623</v>
       </c>
       <c r="E213" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>20</v>
@@ -6642,7 +6678,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="214" ht="14.25" customHeight="1">
+    <row r="214" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
         <v>228</v>
       </c>
@@ -6650,13 +6686,13 @@
         <v>100</v>
       </c>
       <c r="C214" s="3">
-        <v>6271.0</v>
+        <v>6271</v>
       </c>
       <c r="D214" s="3">
-        <v>627.0</v>
+        <v>627</v>
       </c>
       <c r="E214" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>9</v>
@@ -6668,7 +6704,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="215" ht="14.25" customHeight="1">
+    <row r="215" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
         <v>223</v>
       </c>
@@ -6676,13 +6712,13 @@
         <v>100</v>
       </c>
       <c r="C215" s="3">
-        <v>6272.0</v>
+        <v>6272</v>
       </c>
       <c r="D215" s="3">
-        <v>627.0</v>
+        <v>627</v>
       </c>
       <c r="E215" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>9</v>
@@ -6694,7 +6730,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="216" ht="14.25" customHeight="1">
+    <row r="216" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
         <v>224</v>
       </c>
@@ -6702,13 +6738,13 @@
         <v>100</v>
       </c>
       <c r="C216" s="3">
-        <v>6273.0</v>
+        <v>6273</v>
       </c>
       <c r="D216" s="3">
-        <v>627.0</v>
+        <v>627</v>
       </c>
       <c r="E216" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>9</v>
@@ -6720,7 +6756,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="217" ht="14.25" customHeight="1">
+    <row r="217" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
         <v>229</v>
       </c>
@@ -6728,13 +6764,13 @@
         <v>100</v>
       </c>
       <c r="C217" s="3">
-        <v>6274.0</v>
+        <v>6274</v>
       </c>
       <c r="D217" s="3">
-        <v>627.0</v>
+        <v>627</v>
       </c>
       <c r="E217" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>9</v>
@@ -6746,7 +6782,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="218" ht="14.25" customHeight="1">
+    <row r="218" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
         <v>226</v>
       </c>
@@ -6754,13 +6790,13 @@
         <v>100</v>
       </c>
       <c r="C218" s="3">
-        <v>6277.0</v>
+        <v>6277</v>
       </c>
       <c r="D218" s="3">
-        <v>627.0</v>
+        <v>627</v>
       </c>
       <c r="E218" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>9</v>
@@ -6772,7 +6808,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="219" ht="14.25" customHeight="1">
+    <row r="219" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
         <v>227</v>
       </c>
@@ -6780,13 +6816,13 @@
         <v>100</v>
       </c>
       <c r="C219" s="3">
-        <v>6278.0</v>
+        <v>6278</v>
       </c>
       <c r="D219" s="3">
-        <v>627.0</v>
+        <v>627</v>
       </c>
       <c r="E219" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>9</v>
@@ -6798,7 +6834,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="220" ht="14.25" customHeight="1">
+    <row r="220" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
         <v>230</v>
       </c>
@@ -6806,13 +6842,13 @@
         <v>105</v>
       </c>
       <c r="C220" s="3">
-        <v>6411.0</v>
+        <v>6411</v>
       </c>
       <c r="D220" s="3">
-        <v>641.0</v>
+        <v>641</v>
       </c>
       <c r="E220" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>9</v>
@@ -6824,7 +6860,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="221" ht="14.25" customHeight="1">
+    <row r="221" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
         <v>231</v>
       </c>
@@ -6832,13 +6868,13 @@
         <v>105</v>
       </c>
       <c r="C221" s="3">
-        <v>6412.0</v>
+        <v>6412</v>
       </c>
       <c r="D221" s="3">
-        <v>641.0</v>
+        <v>641</v>
       </c>
       <c r="E221" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>9</v>
@@ -6850,7 +6886,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="222" ht="14.25" customHeight="1">
+    <row r="222" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
         <v>232</v>
       </c>
@@ -6858,13 +6894,13 @@
         <v>105</v>
       </c>
       <c r="C222" s="3">
-        <v>6413.0</v>
+        <v>6413</v>
       </c>
       <c r="D222" s="3">
-        <v>641.0</v>
+        <v>641</v>
       </c>
       <c r="E222" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>9</v>
@@ -6876,7 +6912,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="223" ht="14.25" customHeight="1">
+    <row r="223" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
         <v>229</v>
       </c>
@@ -6884,13 +6920,13 @@
         <v>105</v>
       </c>
       <c r="C223" s="3">
-        <v>6414.0</v>
+        <v>6414</v>
       </c>
       <c r="D223" s="3">
-        <v>641.0</v>
+        <v>641</v>
       </c>
       <c r="E223" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>9</v>
@@ -6902,7 +6938,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="224" ht="14.25" customHeight="1">
+    <row r="224" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
         <v>233</v>
       </c>
@@ -6910,13 +6946,13 @@
         <v>105</v>
       </c>
       <c r="C224" s="3">
-        <v>6415.0</v>
+        <v>6415</v>
       </c>
       <c r="D224" s="3">
-        <v>641.0</v>
+        <v>641</v>
       </c>
       <c r="E224" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>9</v>
@@ -6928,7 +6964,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="225" ht="14.25" customHeight="1">
+    <row r="225" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
         <v>226</v>
       </c>
@@ -6936,13 +6972,13 @@
         <v>105</v>
       </c>
       <c r="C225" s="3">
-        <v>6417.0</v>
+        <v>6417</v>
       </c>
       <c r="D225" s="3">
-        <v>641.0</v>
+        <v>641</v>
       </c>
       <c r="E225" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>9</v>
@@ -6954,7 +6990,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="226" ht="14.25" customHeight="1">
+    <row r="226" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
         <v>227</v>
       </c>
@@ -6962,13 +6998,13 @@
         <v>105</v>
       </c>
       <c r="C226" s="3">
-        <v>6418.0</v>
+        <v>6418</v>
       </c>
       <c r="D226" s="3">
-        <v>641.0</v>
+        <v>641</v>
       </c>
       <c r="E226" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>9</v>
@@ -6980,7 +7016,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="227" ht="14.25" customHeight="1">
+    <row r="227" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
         <v>234</v>
       </c>
@@ -6988,13 +7024,13 @@
         <v>106</v>
       </c>
       <c r="C227" s="3">
-        <v>6421.0</v>
+        <v>6421</v>
       </c>
       <c r="D227" s="3">
-        <v>642.0</v>
+        <v>642</v>
       </c>
       <c r="E227" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>9</v>
@@ -7006,7 +7042,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="228" ht="14.25" customHeight="1">
+    <row r="228" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
         <v>235</v>
       </c>
@@ -7014,13 +7050,13 @@
         <v>106</v>
       </c>
       <c r="C228" s="3">
-        <v>6422.0</v>
+        <v>6422</v>
       </c>
       <c r="D228" s="3">
-        <v>642.0</v>
+        <v>642</v>
       </c>
       <c r="E228" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F228" s="2" t="s">
         <v>9</v>
@@ -7032,7 +7068,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="229" ht="14.25" customHeight="1">
+    <row r="229" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
         <v>236</v>
       </c>
@@ -7040,13 +7076,13 @@
         <v>106</v>
       </c>
       <c r="C229" s="3">
-        <v>6423.0</v>
+        <v>6423</v>
       </c>
       <c r="D229" s="3">
-        <v>642.0</v>
+        <v>642</v>
       </c>
       <c r="E229" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>9</v>
@@ -7058,7 +7094,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="230" ht="14.25" customHeight="1">
+    <row r="230" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
         <v>229</v>
       </c>
@@ -7066,13 +7102,13 @@
         <v>106</v>
       </c>
       <c r="C230" s="3">
-        <v>6424.0</v>
+        <v>6424</v>
       </c>
       <c r="D230" s="3">
-        <v>642.0</v>
+        <v>642</v>
       </c>
       <c r="E230" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F230" s="2" t="s">
         <v>237</v>
@@ -7084,7 +7120,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="231" ht="14.25" customHeight="1">
+    <row r="231" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
         <v>238</v>
       </c>
@@ -7092,13 +7128,13 @@
         <v>106</v>
       </c>
       <c r="C231" s="3">
-        <v>6425.0</v>
+        <v>6425</v>
       </c>
       <c r="D231" s="3">
-        <v>642.0</v>
+        <v>642</v>
       </c>
       <c r="E231" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F231" s="2" t="s">
         <v>9</v>
@@ -7110,7 +7146,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="232" ht="14.25" customHeight="1">
+    <row r="232" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
         <v>239</v>
       </c>
@@ -7118,13 +7154,13 @@
         <v>106</v>
       </c>
       <c r="C232" s="3">
-        <v>6426.0</v>
+        <v>6426</v>
       </c>
       <c r="D232" s="3">
-        <v>642.0</v>
+        <v>642</v>
       </c>
       <c r="E232" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F232" s="2" t="s">
         <v>9</v>
@@ -7136,7 +7172,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="233" ht="14.25" customHeight="1">
+    <row r="233" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
         <v>226</v>
       </c>
@@ -7144,13 +7180,13 @@
         <v>106</v>
       </c>
       <c r="C233" s="3">
-        <v>6427.0</v>
+        <v>6427</v>
       </c>
       <c r="D233" s="3">
-        <v>642.0</v>
+        <v>642</v>
       </c>
       <c r="E233" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F233" s="2" t="s">
         <v>9</v>
@@ -7162,7 +7198,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="234" ht="14.25" customHeight="1">
+    <row r="234" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
         <v>227</v>
       </c>
@@ -7170,13 +7206,13 @@
         <v>106</v>
       </c>
       <c r="C234" s="3">
-        <v>6428.0</v>
+        <v>6428</v>
       </c>
       <c r="D234" s="3">
-        <v>642.0</v>
+        <v>642</v>
       </c>
       <c r="E234" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F234" s="2" t="s">
         <v>9</v>
@@ -7188,7 +7224,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="235" ht="14.25" customHeight="1">
+    <row r="235" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
         <v>240</v>
       </c>
@@ -7196,13 +7232,13 @@
         <v>109</v>
       </c>
       <c r="C235" s="3">
-        <v>8211.0</v>
+        <v>8211</v>
       </c>
       <c r="D235" s="3">
-        <v>821.0</v>
+        <v>821</v>
       </c>
       <c r="E235" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F235" s="2" t="s">
         <v>9</v>
@@ -7214,7 +7250,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="236" ht="14.25" customHeight="1">
+    <row r="236" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
         <v>241</v>
       </c>
@@ -7222,13 +7258,13 @@
         <v>109</v>
       </c>
       <c r="C236" s="3">
-        <v>8212.0</v>
+        <v>8212</v>
       </c>
       <c r="D236" s="3">
-        <v>821.0</v>
+        <v>821</v>
       </c>
       <c r="E236" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F236" s="2" t="s">
         <v>9</v>
@@ -7240,7 +7276,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="237" ht="14.25" customHeight="1">
+    <row r="237" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
         <v>242</v>
       </c>
@@ -7248,13 +7284,13 @@
         <v>166</v>
       </c>
       <c r="C237" s="3">
-        <v>33311.0</v>
+        <v>33311</v>
       </c>
       <c r="D237" s="3">
-        <v>3331.0</v>
+        <v>3331</v>
       </c>
       <c r="E237" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F237" s="2" t="s">
         <v>35</v>
@@ -7266,7 +7302,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="238" ht="14.25" customHeight="1">
+    <row r="238" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
         <v>243</v>
       </c>
@@ -7274,13 +7310,13 @@
         <v>166</v>
       </c>
       <c r="C238" s="3">
-        <v>33312.0</v>
+        <v>33312</v>
       </c>
       <c r="D238" s="3">
-        <v>3331.0</v>
+        <v>3331</v>
       </c>
       <c r="E238" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F238" s="2" t="s">
         <v>35</v>
@@ -7292,7 +7328,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="239" ht="14.25" customHeight="1">
+    <row r="239" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
         <v>244</v>
       </c>
@@ -7300,13 +7336,13 @@
         <v>173</v>
       </c>
       <c r="C239" s="3">
-        <v>33381.0</v>
+        <v>33381</v>
       </c>
       <c r="D239" s="3">
-        <v>3338.0</v>
+        <v>3338</v>
       </c>
       <c r="E239" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F239" s="2" t="s">
         <v>35</v>
@@ -7318,7 +7354,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="240" ht="14.25" customHeight="1">
+    <row r="240" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
         <v>245</v>
       </c>
@@ -7326,13 +7362,13 @@
         <v>173</v>
       </c>
       <c r="C240" s="3">
-        <v>33382.0</v>
+        <v>33382</v>
       </c>
       <c r="D240" s="3">
-        <v>3338.0</v>
+        <v>3338</v>
       </c>
       <c r="E240" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F240" s="2" t="s">
         <v>35</v>
@@ -7344,7 +7380,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="241" ht="14.25" customHeight="1">
+    <row r="241" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
         <v>246</v>
       </c>
@@ -7352,13 +7388,13 @@
         <v>190</v>
       </c>
       <c r="C241" s="3">
-        <v>34311.0</v>
+        <v>34311</v>
       </c>
       <c r="D241" s="3">
-        <v>3431.0</v>
+        <v>3431</v>
       </c>
       <c r="E241" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F241" s="2" t="s">
         <v>9</v>
@@ -7370,7 +7406,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="242" ht="14.25" customHeight="1">
+    <row r="242" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
         <v>247</v>
       </c>
@@ -7378,13 +7414,13 @@
         <v>190</v>
       </c>
       <c r="C242" s="3">
-        <v>34312.0</v>
+        <v>34312</v>
       </c>
       <c r="D242" s="3">
-        <v>3431.0</v>
+        <v>3431</v>
       </c>
       <c r="E242" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F242" s="2" t="s">
         <v>9</v>
@@ -7396,7 +7432,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="243" ht="14.25" customHeight="1">
+    <row r="243" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
         <v>248</v>
       </c>
@@ -7404,13 +7440,13 @@
         <v>190</v>
       </c>
       <c r="C243" s="3">
-        <v>34313.0</v>
+        <v>34313</v>
       </c>
       <c r="D243" s="3">
-        <v>3431.0</v>
+        <v>3431</v>
       </c>
       <c r="E243" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F243" s="2" t="s">
         <v>9</v>
@@ -7422,7 +7458,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="244" ht="14.25" customHeight="1">
+    <row r="244" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
         <v>249</v>
       </c>
@@ -7430,13 +7466,13 @@
         <v>82</v>
       </c>
       <c r="C244" s="3">
-        <v>41111.0</v>
+        <v>41111</v>
       </c>
       <c r="D244" s="3">
-        <v>411.0</v>
+        <v>411</v>
       </c>
       <c r="E244" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F244" s="2" t="s">
         <v>9</v>
@@ -7448,7 +7484,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="245" ht="14.25" customHeight="1">
+    <row r="245" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
         <v>250</v>
       </c>
@@ -7456,13 +7492,13 @@
         <v>82</v>
       </c>
       <c r="C245" s="3">
-        <v>41112.0</v>
+        <v>41112</v>
       </c>
       <c r="D245" s="3">
-        <v>411.0</v>
+        <v>411</v>
       </c>
       <c r="E245" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F245" s="2" t="s">
         <v>9</v>
@@ -7474,768 +7510,766 @@
         <v>11</v>
       </c>
     </row>
-    <row r="246" ht="14.25" customHeight="1"/>
-    <row r="247" ht="14.25" customHeight="1"/>
-    <row r="248" ht="14.25" customHeight="1"/>
-    <row r="249" ht="14.25" customHeight="1"/>
-    <row r="250" ht="14.25" customHeight="1"/>
-    <row r="251" ht="14.25" customHeight="1"/>
-    <row r="252" ht="14.25" customHeight="1"/>
-    <row r="253" ht="14.25" customHeight="1"/>
-    <row r="254" ht="14.25" customHeight="1"/>
-    <row r="255" ht="14.25" customHeight="1"/>
-    <row r="256" ht="14.25" customHeight="1"/>
-    <row r="257" ht="14.25" customHeight="1"/>
-    <row r="258" ht="14.25" customHeight="1"/>
-    <row r="259" ht="14.25" customHeight="1"/>
-    <row r="260" ht="14.25" customHeight="1"/>
-    <row r="261" ht="14.25" customHeight="1"/>
-    <row r="262" ht="14.25" customHeight="1"/>
-    <row r="263" ht="14.25" customHeight="1"/>
-    <row r="264" ht="14.25" customHeight="1"/>
-    <row r="265" ht="14.25" customHeight="1"/>
-    <row r="266" ht="14.25" customHeight="1"/>
-    <row r="267" ht="14.25" customHeight="1"/>
-    <row r="268" ht="14.25" customHeight="1"/>
-    <row r="269" ht="14.25" customHeight="1"/>
-    <row r="270" ht="14.25" customHeight="1"/>
-    <row r="271" ht="14.25" customHeight="1"/>
-    <row r="272" ht="14.25" customHeight="1"/>
-    <row r="273" ht="14.25" customHeight="1"/>
-    <row r="274" ht="14.25" customHeight="1"/>
-    <row r="275" ht="14.25" customHeight="1"/>
-    <row r="276" ht="14.25" customHeight="1"/>
-    <row r="277" ht="14.25" customHeight="1"/>
-    <row r="278" ht="14.25" customHeight="1"/>
-    <row r="279" ht="14.25" customHeight="1"/>
-    <row r="280" ht="14.25" customHeight="1"/>
-    <row r="281" ht="14.25" customHeight="1"/>
-    <row r="282" ht="14.25" customHeight="1"/>
-    <row r="283" ht="14.25" customHeight="1"/>
-    <row r="284" ht="14.25" customHeight="1"/>
-    <row r="285" ht="14.25" customHeight="1"/>
-    <row r="286" ht="14.25" customHeight="1"/>
-    <row r="287" ht="14.25" customHeight="1"/>
-    <row r="288" ht="14.25" customHeight="1"/>
-    <row r="289" ht="14.25" customHeight="1"/>
-    <row r="290" ht="14.25" customHeight="1"/>
-    <row r="291" ht="14.25" customHeight="1"/>
-    <row r="292" ht="14.25" customHeight="1"/>
-    <row r="293" ht="14.25" customHeight="1"/>
-    <row r="294" ht="14.25" customHeight="1"/>
-    <row r="295" ht="14.25" customHeight="1"/>
-    <row r="296" ht="14.25" customHeight="1"/>
-    <row r="297" ht="14.25" customHeight="1"/>
-    <row r="298" ht="14.25" customHeight="1"/>
-    <row r="299" ht="14.25" customHeight="1"/>
-    <row r="300" ht="14.25" customHeight="1"/>
-    <row r="301" ht="14.25" customHeight="1"/>
-    <row r="302" ht="14.25" customHeight="1"/>
-    <row r="303" ht="14.25" customHeight="1"/>
-    <row r="304" ht="14.25" customHeight="1"/>
-    <row r="305" ht="14.25" customHeight="1"/>
-    <row r="306" ht="14.25" customHeight="1"/>
-    <row r="307" ht="14.25" customHeight="1"/>
-    <row r="308" ht="14.25" customHeight="1"/>
-    <row r="309" ht="14.25" customHeight="1"/>
-    <row r="310" ht="14.25" customHeight="1"/>
-    <row r="311" ht="14.25" customHeight="1"/>
-    <row r="312" ht="14.25" customHeight="1"/>
-    <row r="313" ht="14.25" customHeight="1"/>
-    <row r="314" ht="14.25" customHeight="1"/>
-    <row r="315" ht="14.25" customHeight="1"/>
-    <row r="316" ht="14.25" customHeight="1"/>
-    <row r="317" ht="14.25" customHeight="1"/>
-    <row r="318" ht="14.25" customHeight="1"/>
-    <row r="319" ht="14.25" customHeight="1"/>
-    <row r="320" ht="14.25" customHeight="1"/>
-    <row r="321" ht="14.25" customHeight="1"/>
-    <row r="322" ht="14.25" customHeight="1"/>
-    <row r="323" ht="14.25" customHeight="1"/>
-    <row r="324" ht="14.25" customHeight="1"/>
-    <row r="325" ht="14.25" customHeight="1"/>
-    <row r="326" ht="14.25" customHeight="1"/>
-    <row r="327" ht="14.25" customHeight="1"/>
-    <row r="328" ht="14.25" customHeight="1"/>
-    <row r="329" ht="14.25" customHeight="1"/>
-    <row r="330" ht="14.25" customHeight="1"/>
-    <row r="331" ht="14.25" customHeight="1"/>
-    <row r="332" ht="14.25" customHeight="1"/>
-    <row r="333" ht="14.25" customHeight="1"/>
-    <row r="334" ht="14.25" customHeight="1"/>
-    <row r="335" ht="14.25" customHeight="1"/>
-    <row r="336" ht="14.25" customHeight="1"/>
-    <row r="337" ht="14.25" customHeight="1"/>
-    <row r="338" ht="14.25" customHeight="1"/>
-    <row r="339" ht="14.25" customHeight="1"/>
-    <row r="340" ht="14.25" customHeight="1"/>
-    <row r="341" ht="14.25" customHeight="1"/>
-    <row r="342" ht="14.25" customHeight="1"/>
-    <row r="343" ht="14.25" customHeight="1"/>
-    <row r="344" ht="14.25" customHeight="1"/>
-    <row r="345" ht="14.25" customHeight="1"/>
-    <row r="346" ht="14.25" customHeight="1"/>
-    <row r="347" ht="14.25" customHeight="1"/>
-    <row r="348" ht="14.25" customHeight="1"/>
-    <row r="349" ht="14.25" customHeight="1"/>
-    <row r="350" ht="14.25" customHeight="1"/>
-    <row r="351" ht="14.25" customHeight="1"/>
-    <row r="352" ht="14.25" customHeight="1"/>
-    <row r="353" ht="14.25" customHeight="1"/>
-    <row r="354" ht="14.25" customHeight="1"/>
-    <row r="355" ht="14.25" customHeight="1"/>
-    <row r="356" ht="14.25" customHeight="1"/>
-    <row r="357" ht="14.25" customHeight="1"/>
-    <row r="358" ht="14.25" customHeight="1"/>
-    <row r="359" ht="14.25" customHeight="1"/>
-    <row r="360" ht="14.25" customHeight="1"/>
-    <row r="361" ht="14.25" customHeight="1"/>
-    <row r="362" ht="14.25" customHeight="1"/>
-    <row r="363" ht="14.25" customHeight="1"/>
-    <row r="364" ht="14.25" customHeight="1"/>
-    <row r="365" ht="14.25" customHeight="1"/>
-    <row r="366" ht="14.25" customHeight="1"/>
-    <row r="367" ht="14.25" customHeight="1"/>
-    <row r="368" ht="14.25" customHeight="1"/>
-    <row r="369" ht="14.25" customHeight="1"/>
-    <row r="370" ht="14.25" customHeight="1"/>
-    <row r="371" ht="14.25" customHeight="1"/>
-    <row r="372" ht="14.25" customHeight="1"/>
-    <row r="373" ht="14.25" customHeight="1"/>
-    <row r="374" ht="14.25" customHeight="1"/>
-    <row r="375" ht="14.25" customHeight="1"/>
-    <row r="376" ht="14.25" customHeight="1"/>
-    <row r="377" ht="14.25" customHeight="1"/>
-    <row r="378" ht="14.25" customHeight="1"/>
-    <row r="379" ht="14.25" customHeight="1"/>
-    <row r="380" ht="14.25" customHeight="1"/>
-    <row r="381" ht="14.25" customHeight="1"/>
-    <row r="382" ht="14.25" customHeight="1"/>
-    <row r="383" ht="14.25" customHeight="1"/>
-    <row r="384" ht="14.25" customHeight="1"/>
-    <row r="385" ht="14.25" customHeight="1"/>
-    <row r="386" ht="14.25" customHeight="1"/>
-    <row r="387" ht="14.25" customHeight="1"/>
-    <row r="388" ht="14.25" customHeight="1"/>
-    <row r="389" ht="14.25" customHeight="1"/>
-    <row r="390" ht="14.25" customHeight="1"/>
-    <row r="391" ht="14.25" customHeight="1"/>
-    <row r="392" ht="14.25" customHeight="1"/>
-    <row r="393" ht="14.25" customHeight="1"/>
-    <row r="394" ht="14.25" customHeight="1"/>
-    <row r="395" ht="14.25" customHeight="1"/>
-    <row r="396" ht="14.25" customHeight="1"/>
-    <row r="397" ht="14.25" customHeight="1"/>
-    <row r="398" ht="14.25" customHeight="1"/>
-    <row r="399" ht="14.25" customHeight="1"/>
-    <row r="400" ht="14.25" customHeight="1"/>
-    <row r="401" ht="14.25" customHeight="1"/>
-    <row r="402" ht="14.25" customHeight="1"/>
-    <row r="403" ht="14.25" customHeight="1"/>
-    <row r="404" ht="14.25" customHeight="1"/>
-    <row r="405" ht="14.25" customHeight="1"/>
-    <row r="406" ht="14.25" customHeight="1"/>
-    <row r="407" ht="14.25" customHeight="1"/>
-    <row r="408" ht="14.25" customHeight="1"/>
-    <row r="409" ht="14.25" customHeight="1"/>
-    <row r="410" ht="14.25" customHeight="1"/>
-    <row r="411" ht="14.25" customHeight="1"/>
-    <row r="412" ht="14.25" customHeight="1"/>
-    <row r="413" ht="14.25" customHeight="1"/>
-    <row r="414" ht="14.25" customHeight="1"/>
-    <row r="415" ht="14.25" customHeight="1"/>
-    <row r="416" ht="14.25" customHeight="1"/>
-    <row r="417" ht="14.25" customHeight="1"/>
-    <row r="418" ht="14.25" customHeight="1"/>
-    <row r="419" ht="14.25" customHeight="1"/>
-    <row r="420" ht="14.25" customHeight="1"/>
-    <row r="421" ht="14.25" customHeight="1"/>
-    <row r="422" ht="14.25" customHeight="1"/>
-    <row r="423" ht="14.25" customHeight="1"/>
-    <row r="424" ht="14.25" customHeight="1"/>
-    <row r="425" ht="14.25" customHeight="1"/>
-    <row r="426" ht="14.25" customHeight="1"/>
-    <row r="427" ht="14.25" customHeight="1"/>
-    <row r="428" ht="14.25" customHeight="1"/>
-    <row r="429" ht="14.25" customHeight="1"/>
-    <row r="430" ht="14.25" customHeight="1"/>
-    <row r="431" ht="14.25" customHeight="1"/>
-    <row r="432" ht="14.25" customHeight="1"/>
-    <row r="433" ht="14.25" customHeight="1"/>
-    <row r="434" ht="14.25" customHeight="1"/>
-    <row r="435" ht="14.25" customHeight="1"/>
-    <row r="436" ht="14.25" customHeight="1"/>
-    <row r="437" ht="14.25" customHeight="1"/>
-    <row r="438" ht="14.25" customHeight="1"/>
-    <row r="439" ht="14.25" customHeight="1"/>
-    <row r="440" ht="14.25" customHeight="1"/>
-    <row r="441" ht="14.25" customHeight="1"/>
-    <row r="442" ht="14.25" customHeight="1"/>
-    <row r="443" ht="14.25" customHeight="1"/>
-    <row r="444" ht="14.25" customHeight="1"/>
-    <row r="445" ht="14.25" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="246" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>